--- a/src/00_Python_template_v3.xlsx
+++ b/src/00_Python_template_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/N2O Research/N2O_isotopocule_data_corrections/pyisotopomer/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4993F406-4A2D-0E4D-A7AE-340C9C24162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A09F09D-B53D-1349-BA88-A5CDF257245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="940" windowWidth="16720" windowHeight="16140" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
+    <workbookView xWindow="12080" yWindow="500" windowWidth="16720" windowHeight="15880" xr2:uid="{C87639FE-6F05-2348-B25E-B6AD821683A8}"/>
   </bookViews>
   <sheets>
     <sheet name="size_correction" sheetId="2" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1250,23 +1250,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1285,7 +1274,7 @@
     <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1301,7 +1290,6 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="1"/>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="18" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1374,7 +1362,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3991,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357C812C-3217-554B-B2A1-EA8A97EA775D}">
   <dimension ref="A1:BM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BA25" sqref="BA25"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3:AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4009,11 +3996,11 @@
     <col min="36" max="36" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.83203125" customWidth="1"/>
-    <col min="42" max="42" width="9.6640625" style="61" customWidth="1"/>
+    <col min="42" max="42" width="9.6640625" style="54" customWidth="1"/>
     <col min="43" max="43" width="10.1640625" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" style="44" customWidth="1"/>
+    <col min="44" max="44" width="15.6640625" customWidth="1"/>
     <col min="45" max="45" width="14.33203125" customWidth="1"/>
-    <col min="46" max="48" width="10.83203125" style="50"/>
+    <col min="46" max="48" width="10.83203125" style="43"/>
     <col min="51" max="51" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4026,7 +4013,7 @@
         <v>116</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="63" t="s">
         <v>96</v>
       </c>
       <c r="X1" s="2"/>
@@ -4038,24 +4025,23 @@
       </c>
       <c r="AF1" s="7"/>
       <c r="AG1" s="7"/>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="74"/>
-      <c r="AL1" s="51" t="s">
+      <c r="AJ1" s="66"/>
+      <c r="AL1" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="45"/>
-      <c r="AT1" s="122" t="s">
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="44"/>
+      <c r="AT1" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="AU1" s="122"/>
-      <c r="AV1" s="122"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
       <c r="AX1" s="38" t="s">
         <v>91</v>
       </c>
@@ -4068,17 +4054,17 @@
       <c r="BC1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="102" t="s">
+      <c r="BE1" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="103"/>
-      <c r="BJ1" s="104"/>
-      <c r="BK1" s="104"/>
-      <c r="BL1" s="104"/>
-      <c r="BM1" s="104"/>
+      <c r="BF1" s="94"/>
+      <c r="BG1" s="94"/>
+      <c r="BH1" s="94"/>
+      <c r="BI1" s="95"/>
+      <c r="BJ1" s="96"/>
+      <c r="BK1" s="96"/>
+      <c r="BL1" s="96"/>
+      <c r="BM1" s="96"/>
     </row>
     <row r="2" spans="1:65" ht="52" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -4172,44 +4158,44 @@
       <c r="AG2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="75" t="s">
+      <c r="AI2" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="AJ2" s="75" t="s">
+      <c r="AJ2" s="67" t="s">
         <v>119</v>
       </c>
       <c r="AK2" s="23"/>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="52" t="s">
+      <c r="AM2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="52" t="s">
+      <c r="AN2" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="AO2" s="52" t="s">
+      <c r="AO2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="AP2" s="59" t="s">
+      <c r="AP2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="53" t="s">
+      <c r="AQ2" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="46" t="s">
+      <c r="AR2" s="42" t="s">
         <v>74</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="123" t="s">
+      <c r="AT2" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="AU2" s="124" t="s">
+      <c r="AU2" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="125" t="s">
+      <c r="AV2" s="116" t="s">
         <v>34</v>
       </c>
       <c r="AX2" s="39" t="s">
@@ -4230,32 +4216,31 @@
       <c r="BC2" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="105" t="s">
+      <c r="BE2" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="BF2" s="105" t="s">
+      <c r="BF2" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="BG2" s="105" t="s">
+      <c r="BG2" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="BH2" s="105" t="s">
+      <c r="BH2" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="BI2" s="106" t="s">
+      <c r="BI2" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="BJ2" s="107" t="s">
+      <c r="BJ2" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="BK2" s="108" t="s">
+      <c r="BK2" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="BL2" s="107" t="s">
+      <c r="BL2" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="BM2" s="109" t="s">
+      <c r="BM2" s="101" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4267,49 +4252,49 @@
         <f>scale_normalization!A3</f>
         <v>ATM</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>2</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>0</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>5.4059999999999997</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>46.78</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="41">
         <v>3.4780000000000002</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>4.7690000000000001</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="41">
         <v>4.95</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>2.1</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="41">
         <v>1547.6</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="41">
         <v>44169.764756944445</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="41">
         <v>0.76603699999999997</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="41">
         <v>0.74141800000000002</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="41">
         <v>0.43208400000000002</v>
       </c>
       <c r="S3" s="24">
@@ -4354,11 +4339,11 @@
         <f>$Y$7*(20-I3)+AB3</f>
         <v>1.0075218399408568</v>
       </c>
-      <c r="AI3" s="76">
+      <c r="AI3" s="68">
         <f>AF3^$X$11*EXP(X$12)</f>
         <v>1.0059968914794004</v>
       </c>
-      <c r="AJ3" s="76">
+      <c r="AJ3" s="68">
         <f>AG3^$Y$11*EXP(Y$12)</f>
         <v>1.0054928361918907</v>
       </c>
@@ -4375,16 +4360,16 @@
         <f>AJ3*$Y$3</f>
         <v>2.1128372920185372E-3</v>
       </c>
-      <c r="AO3" s="121">
+      <c r="AO3" s="112">
         <v>0</v>
       </c>
-      <c r="AP3" s="56">
+      <c r="AP3" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ3" s="57">
+      <c r="AQ3" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR3" s="47">
+      <c r="AR3" s="8">
         <f>A3</f>
         <v>201204</v>
       </c>
@@ -4392,34 +4377,33 @@
         <f>D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="AT3" s="50">
+      <c r="AT3" s="43">
         <v>6.2203181437037101</v>
       </c>
-      <c r="AU3" s="50">
+      <c r="AU3" s="43">
         <v>23.184854106174502</v>
       </c>
-      <c r="AV3" s="50">
+      <c r="AV3" s="43">
         <v>45.420222711976798</v>
       </c>
-      <c r="AX3" s="50">
+      <c r="AX3" s="43">
         <v>15.0999929772066</v>
       </c>
-      <c r="AY3" s="50">
+      <c r="AY3" s="43">
         <v>-2.65906639806534</v>
       </c>
-      <c r="AZ3" s="50">
+      <c r="AZ3" s="43">
         <v>17.759059375271999</v>
       </c>
-      <c r="BA3" s="50">
+      <c r="BA3" s="43">
         <v>6.2204632895706498</v>
       </c>
-      <c r="BB3" s="50">
+      <c r="BB3" s="43">
         <v>23.184968719754199</v>
       </c>
-      <c r="BC3" s="50">
+      <c r="BC3" s="43">
         <v>45.420449658321701</v>
       </c>
-      <c r="BD3" s="44"/>
       <c r="BE3">
         <v>265</v>
       </c>
@@ -4433,23 +4417,23 @@
       <c r="BH3" t="s">
         <v>170</v>
       </c>
-      <c r="BI3" s="77">
+      <c r="BI3" s="69">
         <f>BG3*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ3" s="50">
+      <c r="BJ3" s="43">
         <f>I3*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.3147589419488055</v>
       </c>
-      <c r="BK3" s="50">
+      <c r="BK3" s="43">
         <f>BJ3*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32759693848642901</v>
       </c>
-      <c r="BL3" s="50">
+      <c r="BL3" s="43">
         <f>BJ3/BI3</f>
         <v>15.223991502817144</v>
       </c>
-      <c r="BM3" s="50">
+      <c r="BM3" s="43">
         <f>BK3/BI3</f>
         <v>2.1545798646607448</v>
       </c>
@@ -4540,11 +4524,11 @@
         <f t="shared" ref="AG4:AG17" si="4">$Y$7*(20-I4)+AB4</f>
         <v>0.99497700286985102</v>
       </c>
-      <c r="AI4" s="76">
+      <c r="AI4" s="68">
         <f t="shared" ref="AI4:AI17" si="5">AF4^$X$11*EXP(X$12)</f>
         <v>0.99647928654867735</v>
       </c>
-      <c r="AJ4" s="76">
+      <c r="AJ4" s="68">
         <f t="shared" ref="AJ4:AJ17" si="6">AG4^$Y$11*EXP(Y$12)</f>
         <v>0.99374694414430875</v>
       </c>
@@ -4561,51 +4545,50 @@
         <f t="shared" ref="AN4:AN17" si="9">AJ4*$Y$3</f>
         <v>2.0881557051858103E-3</v>
       </c>
-      <c r="AO4" s="121">
+      <c r="AO4" s="112">
         <v>0</v>
       </c>
-      <c r="AP4" s="56">
+      <c r="AP4" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ4" s="57">
+      <c r="AQ4" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR4" s="47">
+      <c r="AR4" s="8">
         <f t="shared" ref="AR4:AR17" si="10">A4</f>
         <v>201205</v>
       </c>
-      <c r="AS4" s="41" t="str">
+      <c r="AS4" t="str">
         <f t="shared" ref="AS4:AS17" si="11">D4</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="AT4" s="50">
+      <c r="AT4" s="43">
         <v>-3.4723263363131101</v>
       </c>
-      <c r="AU4" s="50">
+      <c r="AU4" s="43">
         <v>17.092027865309198</v>
       </c>
-      <c r="AV4" s="50">
+      <c r="AV4" s="43">
         <v>33.389515229178897</v>
       </c>
-      <c r="AX4" s="50">
+      <c r="AX4" s="43">
         <v>6.8686685500460802</v>
       </c>
-      <c r="AY4" s="50">
+      <c r="AY4" s="43">
         <v>-13.831339262750801</v>
       </c>
-      <c r="AZ4" s="50">
+      <c r="AZ4" s="43">
         <v>20.700007812796901</v>
       </c>
-      <c r="BA4" s="50">
+      <c r="BA4" s="43">
         <v>-3.4813353563523601</v>
       </c>
-      <c r="BB4" s="50">
+      <c r="BB4" s="43">
         <v>17.0288966326066</v>
       </c>
-      <c r="BC4" s="50">
+      <c r="BC4" s="43">
         <v>33.265211051257197</v>
       </c>
-      <c r="BD4" s="44"/>
       <c r="BE4">
         <v>265</v>
       </c>
@@ -4619,23 +4602,23 @@
       <c r="BH4" t="s">
         <v>39</v>
       </c>
-      <c r="BI4" s="77">
+      <c r="BI4" s="69">
         <f>BG4*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ4" s="50">
+      <c r="BJ4" s="43">
         <f>I4*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>3.0120000289208293</v>
       </c>
-      <c r="BK4" s="50">
+      <c r="BK4" s="43">
         <f>BJ4*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.33318789796769971</v>
       </c>
-      <c r="BL4" s="50">
+      <c r="BL4" s="43">
         <f t="shared" ref="BL4:BL5" si="13">BJ4/BI4</f>
         <v>19.272938646594689</v>
       </c>
-      <c r="BM4" s="50">
+      <c r="BM4" s="43">
         <f t="shared" ref="BM4:BM5" si="14">BK4/BI4</f>
         <v>2.1319753830215245</v>
       </c>
@@ -4702,7 +4685,7 @@
       <c r="U5" s="24">
         <v>0.42933650000000001</v>
       </c>
-      <c r="W5" s="71" t="s">
+      <c r="W5" s="63" t="s">
         <v>97</v>
       </c>
       <c r="X5" s="2"/>
@@ -4731,11 +4714,11 @@
         <f t="shared" si="4"/>
         <v>1.0043106480077921</v>
       </c>
-      <c r="AI5" s="76">
+      <c r="AI5" s="68">
         <f t="shared" si="5"/>
         <v>1.0003866651070386</v>
       </c>
-      <c r="AJ5" s="76">
+      <c r="AJ5" s="68">
         <f t="shared" si="6"/>
         <v>1.0024870261627283</v>
       </c>
@@ -4752,51 +4735,50 @@
         <f t="shared" si="9"/>
         <v>2.1065211977672944E-3</v>
       </c>
-      <c r="AO5" s="121">
+      <c r="AO5" s="112">
         <v>0</v>
       </c>
-      <c r="AP5" s="56">
+      <c r="AP5" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ5" s="57">
+      <c r="AQ5" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR5" s="47">
+      <c r="AR5" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
-      <c r="AS5" s="41" t="str">
+      <c r="AS5" t="str">
         <f t="shared" si="11"/>
         <v>B6_ref_1</v>
       </c>
-      <c r="AT5" s="50">
+      <c r="AT5" s="43">
         <v>0.39399419819985398</v>
       </c>
-      <c r="AU5" s="50">
+      <c r="AU5" s="43">
         <v>21.639630589042699</v>
       </c>
-      <c r="AV5" s="50">
+      <c r="AV5" s="43">
         <v>42.362693025552701</v>
       </c>
-      <c r="AX5" s="50">
+      <c r="AX5" s="43">
         <v>-0.54495067572513101</v>
       </c>
-      <c r="AY5" s="50">
+      <c r="AY5" s="43">
         <v>1.33316893428658</v>
       </c>
-      <c r="AZ5" s="50">
+      <c r="AZ5" s="43">
         <v>-1.8781196100117099</v>
       </c>
-      <c r="BA5" s="50">
+      <c r="BA5" s="43">
         <v>0.394109129280728</v>
       </c>
-      <c r="BB5" s="50">
+      <c r="BB5" s="43">
         <v>21.6379295492561</v>
       </c>
-      <c r="BC5" s="50">
+      <c r="BC5" s="43">
         <v>42.359329571039098</v>
       </c>
-      <c r="BD5" s="44"/>
       <c r="BE5">
         <v>265</v>
       </c>
@@ -4810,23 +4792,23 @@
       <c r="BH5" t="s">
         <v>39</v>
       </c>
-      <c r="BI5" s="77">
+      <c r="BI5" s="69">
         <f>BG5*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ5" s="50">
+      <c r="BJ5" s="43">
         <f>I5*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>9.9048847269174694</v>
       </c>
-      <c r="BK5" s="50">
+      <c r="BK5" s="43">
         <f>BJ5*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.38845979713665457</v>
       </c>
-      <c r="BL5" s="50">
+      <c r="BL5" s="43">
         <f t="shared" si="13"/>
         <v>63.378563682109089</v>
       </c>
-      <c r="BM5" s="50">
+      <c r="BM5" s="43">
         <f t="shared" si="14"/>
         <v>2.4856446762936448</v>
       </c>
@@ -4926,11 +4908,11 @@
         <f t="shared" si="4"/>
         <v>1.0077071570383731</v>
       </c>
-      <c r="AI6" s="76">
+      <c r="AI6" s="68">
         <f t="shared" si="5"/>
         <v>1.0067598334872758</v>
       </c>
-      <c r="AJ6" s="76">
+      <c r="AJ6" s="68">
         <f t="shared" si="6"/>
         <v>1.0056662825571459</v>
       </c>
@@ -4947,16 +4929,16 @@
         <f t="shared" si="9"/>
         <v>2.1132017540370475E-3</v>
       </c>
-      <c r="AO6" s="121">
+      <c r="AO6" s="112">
         <v>0</v>
       </c>
-      <c r="AP6" s="56">
+      <c r="AP6" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ6" s="57">
+      <c r="AQ6" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR6" s="47">
+      <c r="AR6" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -4964,34 +4946,33 @@
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AT6" s="50">
+      <c r="AT6" s="43">
         <v>7.01905073292086</v>
       </c>
-      <c r="AU6" s="50">
+      <c r="AU6" s="43">
         <v>23.2705758467213</v>
       </c>
-      <c r="AV6" s="50">
+      <c r="AV6" s="43">
         <v>45.589966987490101</v>
       </c>
-      <c r="AX6" s="50">
+      <c r="AX6" s="43">
         <v>14.845855550435999</v>
       </c>
-      <c r="AY6" s="50">
+      <c r="AY6" s="43">
         <v>-0.80736955119242704</v>
       </c>
-      <c r="AZ6" s="50">
+      <c r="AZ6" s="43">
         <v>15.653225101628401</v>
       </c>
-      <c r="BA6" s="50">
+      <c r="BA6" s="43">
         <v>7.0192429996218104</v>
       </c>
-      <c r="BB6" s="50">
+      <c r="BB6" s="43">
         <v>23.2705857507415</v>
       </c>
-      <c r="BC6" s="50">
+      <c r="BC6" s="43">
         <v>45.589986599980698</v>
       </c>
-      <c r="BD6" s="44"/>
       <c r="BE6">
         <v>265</v>
       </c>
@@ -5005,23 +4986,23 @@
       <c r="BH6" t="s">
         <v>170</v>
       </c>
-      <c r="BI6" s="77">
+      <c r="BI6" s="69">
         <f>BG6*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ6" s="50">
+      <c r="BJ6" s="43">
         <f>I6*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.4178655483113793</v>
       </c>
-      <c r="BK6" s="50">
+      <c r="BK6" s="43">
         <f>BJ6*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32842371830361955</v>
       </c>
-      <c r="BL6" s="50">
+      <c r="BL6" s="43">
         <f t="shared" ref="BL6:BL17" si="16">BJ6/BI6</f>
         <v>15.90211572158638</v>
       </c>
-      <c r="BM6" s="50">
+      <c r="BM6" s="43">
         <f t="shared" ref="BM6:BM17" si="17">BK6/BI6</f>
         <v>2.1600175319199595</v>
       </c>
@@ -5121,11 +5102,11 @@
         <f t="shared" si="4"/>
         <v>0.9951628615034982</v>
       </c>
-      <c r="AI7" s="76">
+      <c r="AI7" s="68">
         <f t="shared" si="5"/>
         <v>0.99641824052375039</v>
       </c>
-      <c r="AJ7" s="76">
+      <c r="AJ7" s="68">
         <f t="shared" si="6"/>
         <v>0.99392103287815814</v>
       </c>
@@ -5142,16 +5123,16 @@
         <f t="shared" si="9"/>
         <v>2.0885215170103784E-3</v>
       </c>
-      <c r="AO7" s="121">
+      <c r="AO7" s="112">
         <v>0</v>
       </c>
-      <c r="AP7" s="56">
+      <c r="AP7" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ7" s="57">
+      <c r="AQ7" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR7" s="47">
+      <c r="AR7" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -5159,34 +5140,33 @@
         <f t="shared" si="11"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AT7" s="50">
+      <c r="AT7" s="43">
         <v>-3.5407865147798399</v>
       </c>
-      <c r="AU7" s="50">
+      <c r="AU7" s="43">
         <v>17.183123306251801</v>
       </c>
-      <c r="AV7" s="50">
+      <c r="AV7" s="43">
         <v>33.568893149070703</v>
       </c>
-      <c r="AX7" s="50">
+      <c r="AX7" s="43">
         <v>6.6516993692156099</v>
       </c>
-      <c r="AY7" s="50">
+      <c r="AY7" s="43">
         <v>-13.7525249566912</v>
       </c>
-      <c r="AZ7" s="50">
+      <c r="AZ7" s="43">
         <v>20.404224325906799</v>
       </c>
-      <c r="BA7" s="50">
+      <c r="BA7" s="43">
         <v>-3.5504127937378001</v>
       </c>
-      <c r="BB7" s="50">
+      <c r="BB7" s="43">
         <v>17.121993750426299</v>
       </c>
-      <c r="BC7" s="50">
+      <c r="BC7" s="43">
         <v>33.448520011165101</v>
       </c>
-      <c r="BD7" s="44"/>
       <c r="BE7">
         <v>265</v>
       </c>
@@ -5200,23 +5180,23 @@
       <c r="BH7" t="s">
         <v>39</v>
       </c>
-      <c r="BI7" s="77">
+      <c r="BI7" s="69">
         <f>BG7*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ7" s="50">
+      <c r="BJ7" s="43">
         <f>I7*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>17.089981869851989</v>
       </c>
-      <c r="BK7" s="50">
+      <c r="BK7" s="43">
         <f>BJ7*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.44607485704311811</v>
       </c>
-      <c r="BL7" s="50">
+      <c r="BL7" s="43">
         <f t="shared" si="16"/>
         <v>109.35397373388625</v>
       </c>
-      <c r="BM7" s="50">
+      <c r="BM7" s="43">
         <f t="shared" si="17"/>
         <v>2.8543071942335927</v>
       </c>
@@ -5307,11 +5287,11 @@
         <f t="shared" si="4"/>
         <v>1.0023860907979212</v>
       </c>
-      <c r="AI8" s="76">
+      <c r="AI8" s="68">
         <f t="shared" si="5"/>
         <v>0.99910377807114037</v>
       </c>
-      <c r="AJ8" s="76">
+      <c r="AJ8" s="68">
         <f t="shared" si="6"/>
         <v>1.0006852738529772</v>
       </c>
@@ -5328,16 +5308,16 @@
         <f t="shared" si="9"/>
         <v>2.1027351842483515E-3</v>
       </c>
-      <c r="AO8" s="121">
+      <c r="AO8" s="112">
         <v>0</v>
       </c>
-      <c r="AP8" s="56">
+      <c r="AP8" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ8" s="57">
+      <c r="AQ8" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR8" s="47">
+      <c r="AR8" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -5345,34 +5325,33 @@
         <f t="shared" si="11"/>
         <v>B6_ref_2</v>
       </c>
-      <c r="AT8" s="50">
+      <c r="AT8" s="43">
         <v>-0.90723617820675995</v>
       </c>
-      <c r="AU8" s="50">
+      <c r="AU8" s="43">
         <v>20.700616843694</v>
       </c>
-      <c r="AV8" s="50">
+      <c r="AV8" s="43">
         <v>40.5067863924302</v>
       </c>
-      <c r="AX8" s="50">
+      <c r="AX8" s="43">
         <v>-1.1614488103544001</v>
       </c>
-      <c r="AY8" s="50">
+      <c r="AY8" s="43">
         <v>-0.65387448217857302</v>
       </c>
-      <c r="AZ8" s="50">
+      <c r="AZ8" s="43">
         <v>-0.50757432817583004</v>
       </c>
-      <c r="BA8" s="50">
+      <c r="BA8" s="43">
         <v>-0.90766164626648804</v>
       </c>
-      <c r="BB8" s="50">
+      <c r="BB8" s="43">
         <v>20.6931018581875</v>
       </c>
-      <c r="BC8" s="50">
+      <c r="BC8" s="43">
         <v>40.491939912826503</v>
       </c>
-      <c r="BD8" s="44"/>
       <c r="BE8">
         <v>265</v>
       </c>
@@ -5386,23 +5365,23 @@
       <c r="BH8" t="s">
         <v>39</v>
       </c>
-      <c r="BI8" s="77">
+      <c r="BI8" s="69">
         <f>BG8*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ8" s="50">
+      <c r="BJ8" s="43">
         <f>I8*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>9.8350681459275666</v>
       </c>
-      <c r="BK8" s="50">
+      <c r="BK8" s="43">
         <f>BJ8*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.387899959681965</v>
       </c>
-      <c r="BL8" s="50">
+      <c r="BL8" s="43">
         <f t="shared" si="16"/>
         <v>62.931827072210872</v>
       </c>
-      <c r="BM8" s="50">
+      <c r="BM8" s="43">
         <f t="shared" si="17"/>
         <v>2.4820624343239581</v>
       </c>
@@ -5469,7 +5448,7 @@
       <c r="U9" s="24">
         <v>0.42850050000000001</v>
       </c>
-      <c r="W9" s="71" t="s">
+      <c r="W9" s="63" t="s">
         <v>183</v>
       </c>
       <c r="X9" s="2"/>
@@ -5498,11 +5477,11 @@
         <f t="shared" si="4"/>
         <v>1.0057116133646442</v>
       </c>
-      <c r="AI9" s="76">
+      <c r="AI9" s="68">
         <f t="shared" si="5"/>
         <v>1.0053714775393894</v>
       </c>
-      <c r="AJ9" s="76">
+      <c r="AJ9" s="68">
         <f t="shared" si="6"/>
         <v>1.0037984617171607</v>
       </c>
@@ -5518,48 +5497,48 @@
         <f t="shared" si="9"/>
         <v>2.1092769110312277E-3</v>
       </c>
-      <c r="AO9" s="121">
+      <c r="AO9" s="112">
         <v>0</v>
       </c>
-      <c r="AP9" s="56">
+      <c r="AP9" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ9" s="57">
+      <c r="AQ9" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR9" s="47">
+      <c r="AR9" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
-      <c r="AS9" s="41" t="str">
+      <c r="AS9" t="str">
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AT9" s="50">
+      <c r="AT9" s="43">
         <v>5.6080109260125903</v>
       </c>
-      <c r="AU9" s="50">
+      <c r="AU9" s="43">
         <v>22.293017038728699</v>
       </c>
-      <c r="AV9" s="50">
+      <c r="AV9" s="43">
         <v>43.655018162835397</v>
       </c>
-      <c r="AX9" s="50">
+      <c r="AX9" s="43">
         <v>16.0311013691021</v>
       </c>
-      <c r="AY9" s="50">
+      <c r="AY9" s="43">
         <v>-4.81486472977421</v>
       </c>
-      <c r="AZ9" s="50">
+      <c r="AZ9" s="43">
         <v>20.8459660988763</v>
       </c>
-      <c r="BA9" s="50">
+      <c r="BA9" s="43">
         <v>5.6081183196639497</v>
       </c>
-      <c r="BB9" s="50">
+      <c r="BB9" s="43">
         <v>22.293227867574402</v>
       </c>
-      <c r="BC9" s="50">
+      <c r="BC9" s="43">
         <v>43.655435283727499</v>
       </c>
       <c r="BE9">
@@ -5575,23 +5554,23 @@
       <c r="BH9" t="s">
         <v>170</v>
       </c>
-      <c r="BI9" s="77">
+      <c r="BI9" s="69">
         <f>BG9*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ9" s="50">
+      <c r="BJ9" s="43">
         <f>I9*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.4132419336762863</v>
       </c>
-      <c r="BK9" s="50">
+      <c r="BK9" s="43">
         <f>BJ9*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32838664297549441</v>
       </c>
-      <c r="BL9" s="50">
+      <c r="BL9" s="43">
         <f t="shared" si="16"/>
         <v>15.871706563794037</v>
       </c>
-      <c r="BM9" s="50">
+      <c r="BM9" s="43">
         <f t="shared" si="17"/>
         <v>2.1597736903388287</v>
       </c>
@@ -5687,11 +5666,11 @@
         <f t="shared" si="4"/>
         <v>1.0049378092932522</v>
       </c>
-      <c r="AI10" s="76">
+      <c r="AI10" s="68">
         <f t="shared" si="5"/>
         <v>0.99038486066119624</v>
       </c>
-      <c r="AJ10" s="76">
+      <c r="AJ10" s="68">
         <f t="shared" si="6"/>
         <v>1.0030741222584652</v>
       </c>
@@ -5707,16 +5686,16 @@
         <f t="shared" si="9"/>
         <v>2.107754859987872E-3</v>
       </c>
-      <c r="AO10" s="121">
+      <c r="AO10" s="112">
         <v>0</v>
       </c>
-      <c r="AP10" s="56">
+      <c r="AP10" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ10" s="57">
+      <c r="AQ10" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR10" s="47">
+      <c r="AR10" s="8">
         <f t="shared" si="10"/>
         <v>201205</v>
       </c>
@@ -5724,31 +5703,31 @@
         <f t="shared" si="11"/>
         <v>DI</v>
       </c>
-      <c r="AT10" s="50">
+      <c r="AT10" s="43">
         <v>-10.052400659984499</v>
       </c>
-      <c r="AU10" s="50">
+      <c r="AU10" s="43">
         <v>22.0121715199808</v>
       </c>
-      <c r="AV10" s="50">
+      <c r="AV10" s="43">
         <v>43.099442249421699</v>
       </c>
-      <c r="AX10" s="50">
+      <c r="AX10" s="43">
         <v>14.4551675980744</v>
       </c>
-      <c r="AY10" s="50">
+      <c r="AY10" s="43">
         <v>-34.766678408197102</v>
       </c>
-      <c r="AZ10" s="50">
+      <c r="AZ10" s="43">
         <v>49.221846006271498</v>
       </c>
-      <c r="BA10" s="50">
+      <c r="BA10" s="43">
         <v>-10.155755405061299</v>
       </c>
-      <c r="BB10" s="50">
+      <c r="BB10" s="43">
         <v>22.029969992809399</v>
       </c>
-      <c r="BC10" s="50">
+      <c r="BC10" s="43">
         <v>43.134647401975798</v>
       </c>
       <c r="BE10">
@@ -5764,23 +5743,23 @@
       <c r="BH10" t="s">
         <v>39</v>
       </c>
-      <c r="BI10" s="77">
+      <c r="BI10" s="69">
         <f>BG10*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ10" s="50">
+      <c r="BJ10" s="43">
         <f>I10*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>7.9745256167661447</v>
       </c>
-      <c r="BK10" s="50">
+      <c r="BK10" s="43">
         <f>BJ10*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.3729808476444097</v>
       </c>
-      <c r="BL10" s="50">
+      <c r="BL10" s="43">
         <f t="shared" si="16"/>
         <v>51.026740196512598</v>
       </c>
-      <c r="BM10" s="50">
+      <c r="BM10" s="43">
         <f t="shared" si="17"/>
         <v>2.386599244350319</v>
       </c>
@@ -5847,14 +5826,14 @@
       <c r="U11">
         <v>0.42918780000000001</v>
       </c>
-      <c r="W11" s="126" t="s">
+      <c r="W11" s="117" t="s">
         <v>181</v>
       </c>
       <c r="X11">
         <f>scale_normalization!Y3</f>
         <v>1.058002378564959</v>
       </c>
-      <c r="Y11" s="127">
+      <c r="Y11" s="118">
         <f>scale_normalization!Z3</f>
         <v>0.9378376950888252</v>
       </c>
@@ -5882,11 +5861,11 @@
         <f t="shared" si="4"/>
         <v>1.0054625917600983</v>
       </c>
-      <c r="AI11" s="76">
+      <c r="AI11" s="68">
         <f t="shared" si="5"/>
         <v>1.0060330611367791</v>
       </c>
-      <c r="AJ11" s="76">
+      <c r="AJ11" s="68">
         <f t="shared" si="6"/>
         <v>1.0035653623389771</v>
       </c>
@@ -5902,48 +5881,48 @@
         <f t="shared" si="9"/>
         <v>2.1087871004216979E-3</v>
       </c>
-      <c r="AO11" s="121">
+      <c r="AO11" s="112">
         <v>0</v>
       </c>
-      <c r="AP11" s="56">
+      <c r="AP11" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ11" s="57">
+      <c r="AQ11" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR11" s="47">
+      <c r="AR11" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS11" s="41" t="str">
+      <c r="AS11" t="str">
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="AT11" s="50">
+      <c r="AT11" s="43">
         <v>6.3111217793201302</v>
       </c>
-      <c r="AU11" s="50">
+      <c r="AU11" s="43">
         <v>22.1643449518136</v>
       </c>
-      <c r="AV11" s="50">
+      <c r="AV11" s="43">
         <v>43.400457919649099</v>
       </c>
-      <c r="AX11" s="50">
+      <c r="AX11" s="43">
         <v>17.146301255620699</v>
       </c>
-      <c r="AY11" s="50">
+      <c r="AY11" s="43">
         <v>-4.5237796819513898</v>
       </c>
-      <c r="AZ11" s="50">
+      <c r="AZ11" s="43">
         <v>21.670080937572099</v>
       </c>
-      <c r="BA11" s="50">
+      <c r="BA11" s="43">
         <v>6.3112607868346897</v>
       </c>
-      <c r="BB11" s="50">
+      <c r="BB11" s="43">
         <v>22.164584994576799</v>
       </c>
-      <c r="BC11" s="50">
+      <c r="BC11" s="43">
         <v>43.400932783662597</v>
       </c>
       <c r="BE11">
@@ -5959,23 +5938,23 @@
       <c r="BH11" t="s">
         <v>170</v>
       </c>
-      <c r="BI11" s="77">
+      <c r="BI11" s="69">
         <f>BG11*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ11" s="50">
+      <c r="BJ11" s="43">
         <f>I11*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.2611250121817261</v>
       </c>
-      <c r="BK11" s="50">
+      <c r="BK11" s="43">
         <f>BJ11*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32716686468017736</v>
       </c>
-      <c r="BL11" s="50">
+      <c r="BL11" s="43">
         <f t="shared" si="16"/>
         <v>14.871245272425968</v>
       </c>
-      <c r="BM11" s="50">
+      <c r="BM11" s="43">
         <f t="shared" si="17"/>
         <v>2.151751302319628</v>
       </c>
@@ -6077,11 +6056,11 @@
         <f t="shared" si="4"/>
         <v>0.99378130442821833</v>
       </c>
-      <c r="AI12" s="76">
+      <c r="AI12" s="68">
         <f t="shared" si="5"/>
         <v>0.99618538617244334</v>
       </c>
-      <c r="AJ12" s="76">
+      <c r="AJ12" s="68">
         <f t="shared" si="6"/>
         <v>0.99262691753881871</v>
       </c>
@@ -6097,48 +6076,48 @@
         <f t="shared" si="9"/>
         <v>2.0858021986316566E-3</v>
       </c>
-      <c r="AO12" s="121">
+      <c r="AO12" s="112">
         <v>0</v>
       </c>
-      <c r="AP12" s="56">
+      <c r="AP12" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ12" s="57">
+      <c r="AQ12" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR12" s="47">
+      <c r="AR12" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS12" s="41" t="str">
+      <c r="AS12" t="str">
         <f t="shared" si="11"/>
         <v>S2_ref_1</v>
       </c>
-      <c r="AT12" s="50">
+      <c r="AT12" s="43">
         <v>-3.7497609373313701</v>
       </c>
-      <c r="AU12" s="50">
+      <c r="AU12" s="43">
         <v>16.512319852568901</v>
       </c>
-      <c r="AV12" s="50">
+      <c r="AV12" s="43">
         <v>32.248353248248002</v>
       </c>
-      <c r="AX12" s="50">
+      <c r="AX12" s="43">
         <v>7.0048775581035203</v>
       </c>
-      <c r="AY12" s="50">
+      <c r="AY12" s="43">
         <v>-14.525017340220099</v>
       </c>
-      <c r="AZ12" s="50">
+      <c r="AZ12" s="43">
         <v>21.529894898323601</v>
       </c>
-      <c r="BA12" s="50">
+      <c r="BA12" s="43">
         <v>-3.7600698910583099</v>
       </c>
-      <c r="BB12" s="50">
+      <c r="BB12" s="43">
         <v>16.435174307159699</v>
       </c>
-      <c r="BC12" s="50">
+      <c r="BC12" s="43">
         <v>32.096537352544999</v>
       </c>
       <c r="BE12">
@@ -6154,23 +6133,23 @@
       <c r="BH12" t="s">
         <v>39</v>
       </c>
-      <c r="BI12" s="77">
+      <c r="BI12" s="69">
         <f>BG12*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ12" s="50">
+      <c r="BJ12" s="43">
         <f>I12*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>3.6625426080784145</v>
       </c>
-      <c r="BK12" s="50">
+      <c r="BK12" s="43">
         <f>BJ12*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.33840439663490651</v>
       </c>
-      <c r="BL12" s="50">
+      <c r="BL12" s="43">
         <f t="shared" si="16"/>
         <v>23.435577124255598</v>
       </c>
-      <c r="BM12" s="50">
+      <c r="BM12" s="43">
         <f t="shared" si="17"/>
         <v>2.1653542866728439</v>
       </c>
@@ -6261,11 +6240,11 @@
         <f t="shared" si="4"/>
         <v>1.0040343543858852</v>
       </c>
-      <c r="AI13" s="76">
+      <c r="AI13" s="68">
         <f t="shared" si="5"/>
         <v>1.0001712643600078</v>
       </c>
-      <c r="AJ13" s="76">
+      <c r="AJ13" s="68">
         <f t="shared" si="6"/>
         <v>1.002228375883468</v>
       </c>
@@ -6281,48 +6260,48 @@
         <f t="shared" si="9"/>
         <v>2.1059776971714254E-3</v>
       </c>
-      <c r="AO13" s="121">
+      <c r="AO13" s="112">
         <v>0</v>
       </c>
-      <c r="AP13" s="56">
+      <c r="AP13" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ13" s="57">
+      <c r="AQ13" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR13" s="47">
+      <c r="AR13" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS13" s="41" t="str">
+      <c r="AS13" t="str">
         <f t="shared" si="11"/>
         <v>B6_ref_1</v>
       </c>
-      <c r="AT13" s="50">
+      <c r="AT13" s="43">
         <v>0.17417973294908601</v>
       </c>
-      <c r="AU13" s="50">
+      <c r="AU13" s="43">
         <v>21.5049037602423</v>
       </c>
-      <c r="AV13" s="50">
+      <c r="AV13" s="43">
         <v>42.096314842191497</v>
       </c>
-      <c r="AX13" s="50">
+      <c r="AX13" s="43">
         <v>7.7040283221973996E-2</v>
       </c>
-      <c r="AY13" s="50">
+      <c r="AY13" s="43">
         <v>0.27162742435748999</v>
       </c>
-      <c r="AZ13" s="50">
+      <c r="AZ13" s="43">
         <v>-0.19458714113551601</v>
       </c>
-      <c r="BA13" s="50">
+      <c r="BA13" s="43">
         <v>0.17433385378973201</v>
       </c>
-      <c r="BB13" s="50">
+      <c r="BB13" s="43">
         <v>21.502591417517898</v>
       </c>
-      <c r="BC13" s="50">
+      <c r="BC13" s="43">
         <v>42.091743229337503</v>
       </c>
       <c r="BE13">
@@ -6338,23 +6317,23 @@
       <c r="BH13" t="s">
         <v>39</v>
       </c>
-      <c r="BI13" s="77">
+      <c r="BI13" s="69">
         <f>BG13*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ13" s="50">
+      <c r="BJ13" s="43">
         <f>I13*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>9.6085110288080102</v>
       </c>
-      <c r="BK13" s="50">
+      <c r="BK13" s="43">
         <f>BJ13*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.38608326860383324</v>
       </c>
-      <c r="BL13" s="50">
+      <c r="BL13" s="43">
         <f t="shared" si="16"/>
         <v>61.482151980488176</v>
       </c>
-      <c r="BM13" s="50">
+      <c r="BM13" s="43">
         <f t="shared" si="17"/>
         <v>2.4704379405150405</v>
       </c>
@@ -6445,11 +6424,11 @@
         <f t="shared" si="4"/>
         <v>1.0053599727245706</v>
       </c>
-      <c r="AI14" s="76">
+      <c r="AI14" s="68">
         <f t="shared" si="5"/>
         <v>1.0051454300667848</v>
       </c>
-      <c r="AJ14" s="76">
+      <c r="AJ14" s="68">
         <f t="shared" si="6"/>
         <v>1.0034693036318658</v>
       </c>
@@ -6465,48 +6444,48 @@
         <f t="shared" si="9"/>
         <v>2.1085852527194544E-3</v>
       </c>
-      <c r="AO14" s="121">
+      <c r="AO14" s="112">
         <v>0</v>
       </c>
-      <c r="AP14" s="56">
+      <c r="AP14" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ14" s="57">
+      <c r="AQ14" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR14" s="47">
+      <c r="AR14" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS14" s="41" t="str">
+      <c r="AS14" t="str">
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="AT14" s="50">
+      <c r="AT14" s="43">
         <v>5.3789536881834099</v>
       </c>
-      <c r="AU14" s="50">
+      <c r="AU14" s="43">
         <v>22.120506938132898</v>
       </c>
-      <c r="AV14" s="50">
+      <c r="AV14" s="43">
         <v>43.313737229409199</v>
       </c>
-      <c r="AX14" s="50">
+      <c r="AX14" s="43">
         <v>14.3881840437134</v>
       </c>
-      <c r="AY14" s="50">
+      <c r="AY14" s="43">
         <v>-3.63006727819648</v>
       </c>
-      <c r="AZ14" s="50">
+      <c r="AZ14" s="43">
         <v>18.018251321909901</v>
       </c>
-      <c r="BA14" s="50">
+      <c r="BA14" s="43">
         <v>5.3790583827584797</v>
       </c>
-      <c r="BB14" s="50">
+      <c r="BB14" s="43">
         <v>22.120652428866102</v>
       </c>
-      <c r="BC14" s="50">
+      <c r="BC14" s="43">
         <v>43.314025034508099</v>
       </c>
       <c r="BE14">
@@ -6522,23 +6501,23 @@
       <c r="BH14" t="s">
         <v>170</v>
       </c>
-      <c r="BI14" s="77">
+      <c r="BI14" s="69">
         <f>BG14*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ14" s="50">
+      <c r="BJ14" s="43">
         <f>I14*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.3526725819565679</v>
       </c>
-      <c r="BK14" s="50">
+      <c r="BK14" s="43">
         <f>BJ14*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.32790095617705511</v>
       </c>
-      <c r="BL14" s="50">
+      <c r="BL14" s="43">
         <f t="shared" si="16"/>
         <v>15.473346596714352</v>
       </c>
-      <c r="BM14" s="50">
+      <c r="BM14" s="43">
         <f t="shared" si="17"/>
         <v>2.1565793656260164</v>
       </c>
@@ -6629,11 +6608,11 @@
         <f t="shared" si="4"/>
         <v>1.0064676550191509</v>
       </c>
-      <c r="AI15" s="76">
+      <c r="AI15" s="68">
         <f t="shared" si="5"/>
         <v>1.0059478122346599</v>
       </c>
-      <c r="AJ15" s="76">
+      <c r="AJ15" s="68">
         <f t="shared" si="6"/>
         <v>1.0045061407432356</v>
       </c>
@@ -6649,16 +6628,16 @@
         <f t="shared" si="9"/>
         <v>2.110763953587128E-3</v>
       </c>
-      <c r="AO15" s="121">
+      <c r="AO15" s="112">
         <v>0</v>
       </c>
-      <c r="AP15" s="56">
+      <c r="AP15" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ15" s="57">
+      <c r="AQ15" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR15" s="47">
+      <c r="AR15" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
@@ -6666,31 +6645,31 @@
         <f t="shared" si="11"/>
         <v>ATM_EQ_SW_3</v>
       </c>
-      <c r="AT15" s="50">
+      <c r="AT15" s="43">
         <v>6.1956151663247097</v>
       </c>
-      <c r="AU15" s="50">
+      <c r="AU15" s="43">
         <v>22.663099593819901</v>
       </c>
-      <c r="AV15" s="50">
+      <c r="AV15" s="43">
         <v>44.387343755447603</v>
       </c>
-      <c r="AX15" s="50">
+      <c r="AX15" s="43">
         <v>16.674409148413002</v>
       </c>
-      <c r="AY15" s="50">
+      <c r="AY15" s="43">
         <v>-4.2829182187388204</v>
       </c>
-      <c r="AZ15" s="50">
+      <c r="AZ15" s="43">
         <v>20.957327367151802</v>
       </c>
-      <c r="BA15" s="50">
+      <c r="BA15" s="43">
         <v>6.1957454648370804</v>
       </c>
-      <c r="BB15" s="50">
+      <c r="BB15" s="43">
         <v>22.6633222528456</v>
       </c>
-      <c r="BC15" s="50">
+      <c r="BC15" s="43">
         <v>44.387784431714202</v>
       </c>
       <c r="BE15">
@@ -6706,23 +6685,23 @@
       <c r="BH15" t="s">
         <v>170</v>
       </c>
-      <c r="BI15" s="77">
+      <c r="BI15" s="69">
         <f>BG15*concentration_constants!$B$6</f>
         <v>0.15204678362573099</v>
       </c>
-      <c r="BJ15" s="50">
+      <c r="BJ15" s="43">
         <f>I15*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>2.2375445775427525</v>
       </c>
-      <c r="BK15" s="50">
+      <c r="BK15" s="43">
         <f>BJ15*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.3269777805067392</v>
       </c>
-      <c r="BL15" s="50">
+      <c r="BL15" s="43">
         <f t="shared" si="16"/>
         <v>14.716158567685026</v>
       </c>
-      <c r="BM15" s="50">
+      <c r="BM15" s="43">
         <f t="shared" si="17"/>
         <v>2.1505077102558618</v>
       </c>
@@ -6813,11 +6792,11 @@
         <f t="shared" si="4"/>
         <v>0.99474403428411884</v>
       </c>
-      <c r="AI16" s="76">
+      <c r="AI16" s="68">
         <f t="shared" si="5"/>
         <v>0.99610224211658405</v>
       </c>
-      <c r="AJ16" s="76">
+      <c r="AJ16" s="68">
         <f t="shared" si="6"/>
         <v>0.99352872594288855</v>
       </c>
@@ -6833,16 +6812,16 @@
         <f t="shared" si="9"/>
         <v>2.0876971643219054E-3</v>
       </c>
-      <c r="AO16" s="121">
+      <c r="AO16" s="112">
         <v>0</v>
       </c>
-      <c r="AP16" s="56">
+      <c r="AP16" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ16" s="57">
+      <c r="AQ16" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR16" s="47">
+      <c r="AR16" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
@@ -6850,31 +6829,31 @@
         <f t="shared" si="11"/>
         <v>S2_ref_2</v>
       </c>
-      <c r="AT16" s="50">
+      <c r="AT16" s="43">
         <v>-3.8605993886061598</v>
       </c>
-      <c r="AU16" s="50">
+      <c r="AU16" s="43">
         <v>16.981672886239501</v>
       </c>
-      <c r="AV16" s="50">
+      <c r="AV16" s="43">
         <v>33.172233138363701</v>
       </c>
-      <c r="AX16" s="50">
+      <c r="AX16" s="43">
         <v>7.0981043699742603</v>
       </c>
-      <c r="AY16" s="50">
+      <c r="AY16" s="43">
         <v>-14.842974232046201</v>
       </c>
-      <c r="AZ16" s="50">
+      <c r="AZ16" s="43">
         <v>21.9410786020205</v>
       </c>
-      <c r="BA16" s="50">
+      <c r="BA16" s="43">
         <v>-3.872434931036</v>
       </c>
-      <c r="BB16" s="50">
+      <c r="BB16" s="43">
         <v>16.9158269213642</v>
       </c>
-      <c r="BC16" s="50">
+      <c r="BC16" s="43">
         <v>33.042597062631799</v>
       </c>
       <c r="BE16">
@@ -6890,23 +6869,23 @@
       <c r="BH16" t="s">
         <v>39</v>
       </c>
-      <c r="BI16" s="77">
+      <c r="BI16" s="69">
         <f>BG16*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ16" s="50">
+      <c r="BJ16" s="43">
         <f>I16*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>3.9394971247204844</v>
       </c>
-      <c r="BK16" s="50">
+      <c r="BK16" s="43">
         <f>BJ16*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.34062520878960229</v>
       </c>
-      <c r="BL16" s="50">
+      <c r="BL16" s="43">
         <f t="shared" si="16"/>
         <v>25.207730960871714</v>
       </c>
-      <c r="BM16" s="50">
+      <c r="BM16" s="43">
         <f t="shared" si="17"/>
         <v>2.179564637267827</v>
       </c>
@@ -6993,11 +6972,11 @@
         <f t="shared" si="4"/>
         <v>1.0044001925480899</v>
       </c>
-      <c r="AI17" s="76">
+      <c r="AI17" s="68">
         <f t="shared" si="5"/>
         <v>0.99310021363223033</v>
       </c>
-      <c r="AJ17" s="76">
+      <c r="AJ17" s="68">
         <f t="shared" si="6"/>
         <v>1.0025708516884744</v>
       </c>
@@ -7013,48 +6992,48 @@
         <f t="shared" si="9"/>
         <v>2.1066973399439907E-3</v>
       </c>
-      <c r="AO17" s="121">
+      <c r="AO17" s="112">
         <v>0</v>
       </c>
-      <c r="AP17" s="56">
+      <c r="AP17" s="49">
         <v>0.18299621340752117</v>
       </c>
-      <c r="AQ17" s="57">
+      <c r="AQ17" s="50">
         <v>9.0583232593247826E-2</v>
       </c>
-      <c r="AR17" s="47">
+      <c r="AR17" s="8">
         <f t="shared" si="10"/>
         <v>201207</v>
       </c>
-      <c r="AS17" s="41" t="str">
+      <c r="AS17" t="str">
         <f t="shared" si="11"/>
         <v>DI</v>
       </c>
-      <c r="AT17" s="50">
+      <c r="AT17" s="43">
         <v>-7.2288455237854397</v>
       </c>
-      <c r="AU17" s="50">
+      <c r="AU17" s="43">
         <v>21.7340915222623</v>
       </c>
-      <c r="AV17" s="50">
+      <c r="AV17" s="43">
         <v>42.549478237694899</v>
       </c>
-      <c r="AX17" s="50">
+      <c r="AX17" s="43">
         <v>13.721853832626</v>
       </c>
-      <c r="AY17" s="50">
+      <c r="AY17" s="43">
         <v>-28.286283980962999</v>
       </c>
-      <c r="AZ17" s="50">
+      <c r="AZ17" s="43">
         <v>42.008137813589002</v>
       </c>
-      <c r="BA17" s="50">
+      <c r="BA17" s="43">
         <v>-7.2822150741684801</v>
       </c>
-      <c r="BB17" s="50">
+      <c r="BB17" s="43">
         <v>21.741665288284601</v>
       </c>
-      <c r="BC17" s="50">
+      <c r="BC17" s="43">
         <v>42.564455156773597</v>
       </c>
       <c r="BE17">
@@ -7070,23 +7049,23 @@
       <c r="BH17" t="s">
         <v>39</v>
       </c>
-      <c r="BI17" s="77">
+      <c r="BI17" s="69">
         <f>BG17*concentration_constants!$F$6</f>
         <v>0.15628130635143259</v>
       </c>
-      <c r="BJ17" s="50">
+      <c r="BJ17" s="43">
         <f>I17*concentration_constants!$B$2+concentration_constants!$D$2</f>
         <v>6.3978730261994317</v>
       </c>
-      <c r="BK17" s="50">
+      <c r="BK17" s="43">
         <f>BJ17*concentration_constants!$B$3+concentration_constants!$D$3</f>
         <v>0.36033816075373781</v>
       </c>
-      <c r="BL17" s="50">
+      <c r="BL17" s="43">
         <f t="shared" si="16"/>
         <v>40.938184966360723</v>
       </c>
-      <c r="BM17" s="50">
+      <c r="BM17" s="43">
         <f t="shared" si="17"/>
         <v>2.3057022568229555</v>
       </c>
@@ -7116,22 +7095,15 @@
       <c r="AE18" s="31"/>
       <c r="AF18" s="31"/>
       <c r="AG18" s="31"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="33"/>
       <c r="AN18" s="33"/>
       <c r="AO18" s="33"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="48"/>
-      <c r="BC18" s="48"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="8"/>
     </row>
     <row r="19" spans="1:65">
       <c r="C19" s="24"/>
@@ -7158,22 +7130,15 @@
       <c r="AE19" s="31"/>
       <c r="AF19" s="31"/>
       <c r="AG19" s="31"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
       <c r="AN19" s="33"/>
       <c r="AO19" s="33"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="8"/>
     </row>
     <row r="20" spans="1:65">
       <c r="C20" s="24"/>
@@ -7200,22 +7165,15 @@
       <c r="AE20" s="31"/>
       <c r="AF20" s="31"/>
       <c r="AG20" s="31"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
       <c r="AL20" s="33"/>
       <c r="AM20" s="33"/>
       <c r="AN20" s="33"/>
       <c r="AO20" s="33"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="48"/>
-      <c r="BC20" s="48"/>
+      <c r="AP20" s="49"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="8"/>
     </row>
     <row r="21" spans="1:65">
       <c r="C21" s="24"/>
@@ -7242,22 +7200,15 @@
       <c r="AE21" s="31"/>
       <c r="AF21" s="31"/>
       <c r="AG21" s="31"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
       <c r="AL21" s="33"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
       <c r="AO21" s="33"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="48"/>
-      <c r="BC21" s="48"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="8"/>
     </row>
     <row r="22" spans="1:65">
       <c r="C22" s="24"/>
@@ -7284,22 +7235,15 @@
       <c r="AE22" s="31"/>
       <c r="AF22" s="31"/>
       <c r="AG22" s="31"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="68"/>
       <c r="AL22" s="33"/>
       <c r="AM22" s="33"/>
       <c r="AN22" s="33"/>
       <c r="AO22" s="33"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="8"/>
     </row>
     <row r="23" spans="1:65">
       <c r="C23" s="24"/>
@@ -7326,22 +7270,15 @@
       <c r="AE23" s="31"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="31"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="68"/>
       <c r="AL23" s="33"/>
       <c r="AM23" s="33"/>
       <c r="AN23" s="33"/>
       <c r="AO23" s="33"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
-      <c r="BB23" s="48"/>
-      <c r="BC23" s="48"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="8"/>
     </row>
     <row r="24" spans="1:65">
       <c r="C24" s="24"/>
@@ -7368,39 +7305,32 @@
       <c r="AE24" s="31"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
       <c r="AL24" s="33"/>
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
       <c r="AO24" s="33"/>
-      <c r="AP24" s="56"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="48"/>
-      <c r="AZ24" s="48"/>
-      <c r="BA24" s="48"/>
-      <c r="BB24" s="48"/>
-      <c r="BC24" s="48"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="8"/>
     </row>
     <row r="25" spans="1:65">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
@@ -7410,22 +7340,15 @@
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68"/>
       <c r="AL25" s="33"/>
       <c r="AM25" s="33"/>
       <c r="AN25" s="33"/>
       <c r="AO25" s="33"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="48"/>
-      <c r="BB25" s="48"/>
-      <c r="BC25" s="48"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="8"/>
     </row>
     <row r="26" spans="1:65">
       <c r="C26" s="24"/>
@@ -7452,22 +7375,15 @@
       <c r="AE26" s="31"/>
       <c r="AF26" s="31"/>
       <c r="AG26" s="31"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
       <c r="AL26" s="33"/>
       <c r="AM26" s="33"/>
       <c r="AN26" s="33"/>
       <c r="AO26" s="33"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="48"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="48"/>
-      <c r="BB26" s="48"/>
-      <c r="BC26" s="48"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="8"/>
     </row>
     <row r="27" spans="1:65">
       <c r="C27" s="24"/>
@@ -7494,22 +7410,15 @@
       <c r="AE27" s="31"/>
       <c r="AF27" s="31"/>
       <c r="AG27" s="31"/>
-      <c r="AI27" s="76"/>
-      <c r="AJ27" s="76"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="68"/>
       <c r="AL27" s="33"/>
       <c r="AM27" s="33"/>
       <c r="AN27" s="33"/>
       <c r="AO27" s="33"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="48"/>
-      <c r="AZ27" s="48"/>
-      <c r="BA27" s="48"/>
-      <c r="BB27" s="48"/>
-      <c r="BC27" s="48"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="8"/>
     </row>
     <row r="28" spans="1:65">
       <c r="C28" s="24"/>
@@ -7536,22 +7445,15 @@
       <c r="AE28" s="31"/>
       <c r="AF28" s="31"/>
       <c r="AG28" s="31"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="68"/>
       <c r="AL28" s="33"/>
       <c r="AM28" s="33"/>
       <c r="AN28" s="33"/>
       <c r="AO28" s="33"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="8"/>
     </row>
     <row r="29" spans="1:65">
       <c r="C29" s="24"/>
@@ -7578,22 +7480,15 @@
       <c r="AE29" s="31"/>
       <c r="AF29" s="31"/>
       <c r="AG29" s="31"/>
-      <c r="AI29" s="76"/>
-      <c r="AJ29" s="76"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="68"/>
       <c r="AL29" s="33"/>
       <c r="AM29" s="33"/>
       <c r="AN29" s="33"/>
       <c r="AO29" s="33"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="48"/>
-      <c r="AZ29" s="48"/>
-      <c r="BA29" s="48"/>
-      <c r="BB29" s="48"/>
-      <c r="BC29" s="48"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="8"/>
     </row>
     <row r="30" spans="1:65">
       <c r="C30" s="24"/>
@@ -7620,22 +7515,15 @@
       <c r="AE30" s="31"/>
       <c r="AF30" s="31"/>
       <c r="AG30" s="31"/>
-      <c r="AI30" s="76"/>
-      <c r="AJ30" s="76"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="68"/>
       <c r="AL30" s="33"/>
       <c r="AM30" s="33"/>
       <c r="AN30" s="33"/>
       <c r="AO30" s="33"/>
-      <c r="AP30" s="60"/>
+      <c r="AP30" s="53"/>
       <c r="AQ30" s="32"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="48"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
-      <c r="BA30" s="45"/>
-      <c r="BB30" s="45"/>
-      <c r="BC30" s="45"/>
+      <c r="AR30" s="8"/>
     </row>
     <row r="31" spans="1:65">
       <c r="C31" s="24"/>
@@ -7662,20 +7550,13 @@
       <c r="AE31" s="31"/>
       <c r="AF31" s="31"/>
       <c r="AG31" s="31"/>
-      <c r="AI31" s="76"/>
-      <c r="AJ31" s="76"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="68"/>
       <c r="AL31" s="33"/>
       <c r="AM31" s="33"/>
       <c r="AN31" s="33"/>
       <c r="AO31" s="33"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="48"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
-      <c r="BA31" s="45"/>
-      <c r="BB31" s="45"/>
-      <c r="BC31" s="45"/>
+      <c r="AR31" s="8"/>
     </row>
     <row r="32" spans="1:65">
       <c r="C32" s="24"/>
@@ -7702,22 +7583,15 @@
       <c r="AE32" s="31"/>
       <c r="AF32" s="31"/>
       <c r="AG32" s="31"/>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="76"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="68"/>
       <c r="AL32" s="33"/>
       <c r="AM32" s="33"/>
       <c r="AN32" s="33"/>
       <c r="AO32" s="33"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="48"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-    </row>
-    <row r="33" spans="3:55">
+      <c r="AR32" s="8"/>
+    </row>
+    <row r="33" spans="3:44">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -7730,22 +7604,15 @@
       <c r="AE33" s="31"/>
       <c r="AF33" s="31"/>
       <c r="AG33" s="31"/>
-      <c r="AI33" s="76"/>
-      <c r="AJ33" s="76"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="68"/>
       <c r="AL33" s="33"/>
       <c r="AM33" s="33"/>
       <c r="AN33" s="33"/>
       <c r="AO33" s="33"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="48"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
-      <c r="BA33" s="45"/>
-      <c r="BB33" s="45"/>
-      <c r="BC33" s="45"/>
-    </row>
-    <row r="34" spans="3:55">
+      <c r="AR33" s="8"/>
+    </row>
+    <row r="34" spans="3:44">
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -7758,22 +7625,15 @@
       <c r="AE34" s="31"/>
       <c r="AF34" s="31"/>
       <c r="AG34" s="31"/>
-      <c r="AI34" s="76"/>
-      <c r="AJ34" s="76"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="68"/>
       <c r="AL34" s="33"/>
       <c r="AM34" s="33"/>
       <c r="AN34" s="33"/>
       <c r="AO34" s="33"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="48"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-    </row>
-    <row r="35" spans="3:55">
+      <c r="AR34" s="8"/>
+    </row>
+    <row r="35" spans="3:44">
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -7786,22 +7646,15 @@
       <c r="AE35" s="31"/>
       <c r="AF35" s="31"/>
       <c r="AG35" s="31"/>
-      <c r="AI35" s="76"/>
-      <c r="AJ35" s="76"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="68"/>
       <c r="AL35" s="33"/>
       <c r="AM35" s="33"/>
       <c r="AN35" s="33"/>
       <c r="AO35" s="33"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="48"/>
-      <c r="AX35" s="45"/>
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="45"/>
-      <c r="BA35" s="45"/>
-      <c r="BB35" s="45"/>
-      <c r="BC35" s="45"/>
-    </row>
-    <row r="36" spans="3:55">
+      <c r="AR35" s="8"/>
+    </row>
+    <row r="36" spans="3:44">
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -7826,22 +7679,15 @@
       <c r="AE36" s="31"/>
       <c r="AF36" s="31"/>
       <c r="AG36" s="31"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
       <c r="AL36" s="33"/>
       <c r="AM36" s="33"/>
       <c r="AN36" s="33"/>
       <c r="AO36" s="33"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="48"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
-      <c r="BB36" s="45"/>
-      <c r="BC36" s="45"/>
-    </row>
-    <row r="37" spans="3:55">
+      <c r="AR36" s="8"/>
+    </row>
+    <row r="37" spans="3:44">
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -7866,22 +7712,15 @@
       <c r="AE37" s="31"/>
       <c r="AF37" s="31"/>
       <c r="AG37" s="31"/>
-      <c r="AI37" s="76"/>
-      <c r="AJ37" s="76"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="68"/>
       <c r="AL37" s="33"/>
       <c r="AM37" s="33"/>
       <c r="AN37" s="33"/>
       <c r="AO37" s="33"/>
-      <c r="AR37" s="49"/>
-      <c r="AS37" s="48"/>
-      <c r="AX37" s="45"/>
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="45"/>
-      <c r="BA37" s="45"/>
-      <c r="BB37" s="45"/>
-      <c r="BC37" s="45"/>
-    </row>
-    <row r="38" spans="3:55">
+      <c r="AR37" s="8"/>
+    </row>
+    <row r="38" spans="3:44">
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -7906,22 +7745,15 @@
       <c r="AE38" s="31"/>
       <c r="AF38" s="31"/>
       <c r="AG38" s="31"/>
-      <c r="AI38" s="76"/>
-      <c r="AJ38" s="76"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="68"/>
       <c r="AL38" s="33"/>
       <c r="AM38" s="33"/>
       <c r="AN38" s="33"/>
       <c r="AO38" s="33"/>
-      <c r="AR38" s="49"/>
-      <c r="AS38" s="48"/>
-      <c r="AX38" s="45"/>
-      <c r="AY38" s="45"/>
-      <c r="AZ38" s="45"/>
-      <c r="BA38" s="45"/>
-      <c r="BB38" s="45"/>
-      <c r="BC38" s="45"/>
-    </row>
-    <row r="39" spans="3:55">
+      <c r="AR38" s="8"/>
+    </row>
+    <row r="39" spans="3:44">
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -7946,89 +7778,74 @@
       <c r="AE39" s="31"/>
       <c r="AF39" s="31"/>
       <c r="AG39" s="31"/>
-      <c r="AI39" s="76"/>
-      <c r="AJ39" s="76"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
       <c r="AL39" s="33"/>
       <c r="AM39" s="33"/>
       <c r="AN39" s="33"/>
       <c r="AO39" s="33"/>
-      <c r="AR39" s="49"/>
-      <c r="AS39" s="48"/>
-      <c r="AX39" s="45"/>
-      <c r="AY39" s="45"/>
-      <c r="AZ39" s="45"/>
-      <c r="BA39" s="45"/>
-      <c r="BB39" s="45"/>
-      <c r="BC39" s="45"/>
-    </row>
-    <row r="40" spans="3:55">
+      <c r="AR39" s="8"/>
+    </row>
+    <row r="40" spans="3:44">
       <c r="AA40" s="28"/>
-      <c r="AI40" s="76"/>
-      <c r="AJ40" s="76"/>
-      <c r="AR40" s="45"/>
-      <c r="AS40" s="45"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="45"/>
-      <c r="BA40" s="45"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-    </row>
-    <row r="41" spans="3:55">
-      <c r="AI41" s="76"/>
-      <c r="AJ41" s="76"/>
-    </row>
-    <row r="42" spans="3:55">
-      <c r="AI42" s="76"/>
-      <c r="AJ42" s="76"/>
-    </row>
-    <row r="43" spans="3:55">
-      <c r="AI43" s="76"/>
-      <c r="AJ43" s="76"/>
-    </row>
-    <row r="44" spans="3:55">
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-    </row>
-    <row r="45" spans="3:55">
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-    </row>
-    <row r="46" spans="3:55">
-      <c r="AI46" s="76"/>
-      <c r="AJ46" s="76"/>
-    </row>
-    <row r="47" spans="3:55">
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="76"/>
-    </row>
-    <row r="48" spans="3:55">
-      <c r="AI48" s="76"/>
-      <c r="AJ48" s="76"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="68"/>
+    </row>
+    <row r="41" spans="3:44">
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="68"/>
+    </row>
+    <row r="42" spans="3:44">
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="68"/>
+    </row>
+    <row r="43" spans="3:44">
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="68"/>
+    </row>
+    <row r="44" spans="3:44">
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+    </row>
+    <row r="45" spans="3:44">
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="68"/>
+    </row>
+    <row r="46" spans="3:44">
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="68"/>
+    </row>
+    <row r="47" spans="3:44">
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="68"/>
+    </row>
+    <row r="48" spans="3:44">
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="68"/>
     </row>
     <row r="49" spans="35:36">
-      <c r="AI49" s="76"/>
-      <c r="AJ49" s="76"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="68"/>
     </row>
     <row r="50" spans="35:36">
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="68"/>
     </row>
     <row r="51" spans="35:36">
-      <c r="AI51" s="76"/>
-      <c r="AJ51" s="76"/>
+      <c r="AI51" s="68"/>
+      <c r="AJ51" s="68"/>
     </row>
     <row r="52" spans="35:36">
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
+      <c r="AI52" s="68"/>
+      <c r="AJ52" s="68"/>
     </row>
     <row r="53" spans="35:36">
-      <c r="AI53" s="76"/>
-      <c r="AJ53" s="76"/>
+      <c r="AI53" s="68"/>
+      <c r="AJ53" s="68"/>
     </row>
     <row r="54" spans="35:36">
-      <c r="AI54" s="76"/>
-      <c r="AJ54" s="76"/>
+      <c r="AI54" s="68"/>
+      <c r="AJ54" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8067,106 +7884,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="114" t="s">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
       <c r="W1" s="37"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="62"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="55"/>
     </row>
     <row r="2" spans="1:27" ht="17">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="116" t="s">
+      <c r="G2" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="116" t="s">
+      <c r="J2" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="116" t="s">
+      <c r="K2" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="116" t="s">
+      <c r="L2" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="N2" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="56" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="56" t="s">
         <v>113</v>
       </c>
       <c r="Y2" t="s">
@@ -8177,99 +7994,99 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" thickBot="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="69">
+      <c r="B3" s="62">
         <v>15.7</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="62">
         <v>-3.3</v>
       </c>
-      <c r="D3" s="69">
+      <c r="D3" s="62">
         <f>AVERAGE(B3:C3)</f>
         <v>6.1999999999999993</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="62">
         <v>44.3</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="62">
         <f>B3-C3</f>
         <v>19</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="58">
         <f>(B3/1000+1)*0.0036765</f>
         <v>3.73422105E-3</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="58">
         <f>(C3/1000+1)*0.0036765</f>
         <v>3.6643675500000004E-3</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="58">
         <f>(E3/1000+1)*0.0020052</f>
         <v>2.0940303600000001E-3</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="58">
         <f>(I3/0.0020052)^0.516*0.0003799</f>
         <v>3.8849294549053509E-4</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="59">
         <f>G3+H3+J3</f>
         <v>7.7870815454905359E-3</v>
       </c>
-      <c r="L3" s="66">
+      <c r="L3" s="59">
         <f>(G3+H3)*J3+I3+G3*H3</f>
         <v>2.1105882179178336E-3</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="60">
         <f>K3/size_correction!X$3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="N3" s="67">
+      <c r="N3" s="60">
         <f>L3/size_correction!Y$3</f>
         <v>1.0044225086731247</v>
       </c>
-      <c r="P3" s="63" t="str">
+      <c r="P3" s="56" t="str">
         <f>size_correction!D3</f>
         <v>ATM_EQ_SW</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="Q3" s="61">
         <f t="shared" ref="Q3:R5" si="0">M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="R3" s="68">
+      <c r="R3" s="61">
         <f t="shared" si="0"/>
         <v>1.0044225086731247</v>
       </c>
-      <c r="S3" s="110">
+      <c r="S3" s="102">
         <f>size_correction!AF3</f>
         <v>1.0056851052976181</v>
       </c>
-      <c r="T3" s="110">
+      <c r="T3" s="102">
         <f>size_correction!AG3</f>
         <v>1.0075218399408568</v>
       </c>
-      <c r="U3" s="67">
+      <c r="U3" s="60">
         <f t="shared" ref="U3:U17" si="1">LN(S3)</f>
         <v>5.6690060748599133E-3</v>
       </c>
-      <c r="V3" s="67">
+      <c r="V3" s="60">
         <f t="shared" ref="V3:V17" si="2">LN(T3)</f>
         <v>7.4936919644022753E-3</v>
       </c>
-      <c r="W3" s="67">
+      <c r="W3" s="60">
         <f t="shared" ref="W3:X9" si="3">LN(Q3)</f>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="X3" s="67">
+      <c r="X3" s="60">
         <f t="shared" si="3"/>
         <v>4.412758119012896E-3</v>
       </c>
-      <c r="Y3" s="72">
+      <c r="Y3" s="64">
         <f>SLOPE(W3:W54,U3:U54)</f>
         <v>1.058002378564959</v>
       </c>
-      <c r="Z3" s="72">
+      <c r="Z3" s="64">
         <f>SLOPE(X3:X54,V3:V54)</f>
         <v>0.9378376950888252</v>
       </c>
@@ -8278,99 +8095,99 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="62">
         <v>5.55</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="62">
         <v>-12.87</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="62">
         <f>AVERAGE(B4:C4)</f>
         <v>-3.6599999999999997</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="62">
         <v>32.729999999999997</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="62">
         <f t="shared" ref="F4:F9" si="4">B4-C4</f>
         <v>18.419999999999998</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="58">
         <f>(B4/1000+1)*0.0036765</f>
         <v>3.6969045749999999E-3</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="58">
         <f>(C4/1000+1)*0.0036765</f>
         <v>3.6291834449999998E-3</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="58">
         <f>(E4/1000+1)*0.0020052</f>
         <v>2.0708301959999997E-3</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="58">
         <f>(I4/0.0020052)^0.516*0.0003799</f>
         <v>3.8626599693337293E-4</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="59">
         <f>G4+H4+J4</f>
         <v>7.7123540169333725E-3</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="59">
         <f>(G4+H4)*J4+I4+G4*H4</f>
         <v>2.0870767595740011E-3</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="60">
         <f>K4/size_correction!X$3</f>
         <v>0.99629623559207692</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="60">
         <f>L4/size_correction!Y$3</f>
         <v>0.99323347721175648</v>
       </c>
-      <c r="P4" s="63" t="str">
+      <c r="P4" s="56" t="str">
         <f>size_correction!D4</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="61">
         <f t="shared" si="0"/>
         <v>0.99629623559207692</v>
       </c>
-      <c r="R4" s="68">
+      <c r="R4" s="61">
         <f t="shared" si="0"/>
         <v>0.99323347721175648</v>
       </c>
-      <c r="S4" s="110">
+      <c r="S4" s="102">
         <f>size_correction!AF4</f>
         <v>0.99668972770557829</v>
       </c>
-      <c r="T4" s="110">
+      <c r="T4" s="102">
         <f>size_correction!AG4</f>
         <v>0.99497700286985102</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="60">
         <f t="shared" si="1"/>
         <v>-3.3157633670658081E-3</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="60">
         <f t="shared" si="2"/>
         <v>-5.0356547842637621E-3</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="60">
         <f t="shared" si="3"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="X4" s="67">
+      <c r="X4" s="60">
         <f t="shared" si="3"/>
         <v>-6.7895195007928941E-3</v>
       </c>
-      <c r="Y4" s="72">
+      <c r="Y4" s="64">
         <f>INTERCEPT(W3:W54,U3:U54)</f>
         <v>-1.8840219242949102E-5</v>
       </c>
-      <c r="Z4" s="72">
+      <c r="Z4" s="64">
         <f>INTERCEPT(X3:X54,V3:V54)</f>
         <v>-1.5500612170959347E-3</v>
       </c>
@@ -8379,834 +8196,832 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="62">
         <v>-0.40396535511111115</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="62">
         <v>-0.14814902897277774</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="62">
         <f>AVERAGE(B5:C5)</f>
         <v>-0.27605719204194445</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="62">
         <v>41.949257311111111</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="62">
         <f t="shared" si="4"/>
         <v>-0.25581632613833338</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="58">
         <f t="shared" ref="G5:H9" si="5">(B5/1000+1)*0.0036765</f>
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H5" s="65">
+      <c r="H5" s="58">
         <f t="shared" si="5"/>
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="58">
         <f t="shared" ref="I5:I9" si="6">(E5/1000+1)*0.0020052</f>
         <v>2.0893166507602399E-3</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="58">
         <f t="shared" ref="J5:J9" si="7">(I5/0.0020052)^0.516*0.0003799</f>
         <v>3.8804145413997107E-4</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="59">
         <f t="shared" ref="K5:K9" si="8">G5+H5+J5</f>
         <v>7.7390116056068863E-3</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="59">
         <f t="shared" ref="L5:L9" si="9">(G5+H5)*J5+I5+G5*H5</f>
         <v>2.1056783222279545E-3</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="60">
         <f>K5/size_correction!X$3</f>
         <v>0.99973991247556415</v>
       </c>
-      <c r="N5" s="67">
+      <c r="N5" s="60">
         <f>L5/size_correction!Y$3</f>
         <v>1.0020859042591113</v>
       </c>
-      <c r="P5" s="63" t="str">
+      <c r="P5" s="56" t="str">
         <f>size_correction!D5</f>
         <v>B6_ref_1</v>
       </c>
-      <c r="Q5" s="68">
+      <c r="Q5" s="61">
         <f t="shared" si="0"/>
         <v>0.99973991247556415</v>
       </c>
-      <c r="R5" s="68">
+      <c r="R5" s="61">
         <f t="shared" si="0"/>
         <v>1.0020859042591113</v>
       </c>
-      <c r="S5" s="110">
+      <c r="S5" s="102">
         <f>size_correction!AF5</f>
         <v>1.0003832772874761</v>
       </c>
-      <c r="T5" s="110">
+      <c r="T5" s="102">
         <f>size_correction!AG5</f>
         <v>1.0043106480077921</v>
       </c>
-      <c r="U5" s="67">
+      <c r="U5" s="60">
         <f t="shared" si="1"/>
         <v>3.8320385549917295E-4</v>
       </c>
-      <c r="V5" s="67">
+      <c r="V5" s="60">
         <f t="shared" si="2"/>
         <v>4.3013837783483656E-3</v>
       </c>
-      <c r="W5" s="67">
+      <c r="W5" s="60">
         <f t="shared" si="3"/>
         <v>-2.6012135306176113E-4</v>
       </c>
-      <c r="X5" s="67">
+      <c r="X5" s="60">
         <f t="shared" si="3"/>
         <v>2.0837317813513596E-3</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="69">
+      <c r="B6" s="62">
         <v>-22.21</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="62">
         <v>-49.28</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="62">
         <f t="shared" ref="D6:D9" si="10">AVERAGE(B6:C6)</f>
         <v>-35.745000000000005</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="62">
         <v>26.94</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="62">
         <f t="shared" si="4"/>
         <v>27.07</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="58">
         <f t="shared" si="5"/>
         <v>3.5948449350000004E-3</v>
       </c>
-      <c r="H6" s="65">
+      <c r="H6" s="58">
         <f t="shared" si="5"/>
         <v>3.49532208E-3</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="58">
         <f t="shared" si="6"/>
         <v>2.0592200879999997E-3</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="58">
         <f t="shared" si="7"/>
         <v>3.8514702697154833E-4</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="59">
         <f t="shared" si="8"/>
         <v>7.4753140419715489E-3</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="59">
         <f t="shared" si="9"/>
         <v>2.0745159856220404E-3</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="60">
         <f>K6/size_correction!X$3</f>
         <v>0.96567497077192166</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="60">
         <f>L6/size_correction!Y$3</f>
         <v>0.98725584312065418</v>
       </c>
-      <c r="P6" s="63" t="str">
+      <c r="P6" s="56" t="str">
         <f>size_correction!D6</f>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="Q6" s="61">
         <f t="shared" ref="Q6:R8" si="11">M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="R6" s="68">
+      <c r="R6" s="61">
         <f t="shared" si="11"/>
         <v>1.0044225086731247</v>
       </c>
-      <c r="S6" s="110">
+      <c r="S6" s="102">
         <f>size_correction!AF6</f>
         <v>1.0064059824102283</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="102">
         <f>size_correction!AG6</f>
         <v>1.0077071570383731</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="60">
         <f t="shared" si="1"/>
         <v>6.3855513126554056E-3</v>
       </c>
-      <c r="V6" s="67">
+      <c r="V6" s="60">
         <f t="shared" si="2"/>
         <v>7.6776086292741075E-3</v>
       </c>
-      <c r="W6" s="67">
+      <c r="W6" s="60">
         <f t="shared" si="3"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="X6" s="67">
+      <c r="X6" s="60">
         <f t="shared" si="3"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A7" s="68">
+      <c r="A7" s="61">
         <v>53504</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="62">
         <v>1.71</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="62">
         <v>94.44</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="62">
         <f t="shared" si="10"/>
         <v>48.074999999999996</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="62">
         <v>36.01</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="62">
         <f t="shared" si="4"/>
         <v>-92.73</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="58">
         <f>(B7/1000+1)*0.0036765</f>
         <v>3.6827868150000006E-3</v>
       </c>
-      <c r="H7" s="65">
+      <c r="H7" s="58">
         <f t="shared" si="5"/>
         <v>4.0237086600000008E-3</v>
       </c>
-      <c r="I7" s="65">
+      <c r="I7" s="58">
         <f t="shared" si="6"/>
         <v>2.0774072520000002E-3</v>
       </c>
-      <c r="J7" s="65">
+      <c r="J7" s="58">
         <f t="shared" si="7"/>
         <v>3.8689853960154226E-4</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="59">
         <f t="shared" si="8"/>
         <v>8.0933940146015442E-3</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="59">
         <f t="shared" si="9"/>
         <v>2.0952073450451725E-3</v>
       </c>
-      <c r="M7" s="67">
+      <c r="M7" s="60">
         <f>K7/size_correction!X$3</f>
         <v>1.0455196911613225</v>
       </c>
-      <c r="N7" s="67">
+      <c r="N7" s="60">
         <f>L7/size_correction!Y$3</f>
         <v>0.99710279808951241</v>
       </c>
-      <c r="P7" s="63" t="str">
+      <c r="P7" s="56" t="str">
         <f>size_correction!D7</f>
         <v>S2_ref_2</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="61">
         <f t="shared" si="11"/>
         <v>0.99629623559207692</v>
       </c>
-      <c r="R7" s="68">
+      <c r="R7" s="61">
         <f t="shared" si="11"/>
         <v>0.99323347721175648</v>
       </c>
-      <c r="S7" s="110">
+      <c r="S7" s="102">
         <f>size_correction!AF7</f>
         <v>0.99663201609671503</v>
       </c>
-      <c r="T7" s="110">
+      <c r="T7" s="102">
         <f>size_correction!AG7</f>
         <v>0.9951628615034982</v>
       </c>
-      <c r="U7" s="67">
+      <c r="U7" s="60">
         <f t="shared" si="1"/>
         <v>-3.3736683280273967E-3</v>
       </c>
-      <c r="V7" s="67">
+      <c r="V7" s="60">
         <f t="shared" si="2"/>
         <v>-4.8488753146248009E-3</v>
       </c>
-      <c r="W7" s="67">
+      <c r="W7" s="60">
         <f t="shared" si="3"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="X7" s="67">
+      <c r="X7" s="60">
         <f t="shared" si="3"/>
         <v>-6.7895195007928941E-3</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="62">
         <v>17.11</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="62">
         <v>-3.43</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="62">
         <f t="shared" si="10"/>
         <v>6.84</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="62">
         <v>35.29</v>
       </c>
-      <c r="F8" s="69">
+      <c r="F8" s="62">
         <f t="shared" si="4"/>
         <v>20.54</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="58">
         <f t="shared" si="5"/>
         <v>3.7394049149999998E-3</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="58">
         <f t="shared" si="5"/>
         <v>3.6638896049999998E-3</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="58">
         <f t="shared" si="6"/>
         <v>2.0759635080000003E-3</v>
       </c>
-      <c r="J8" s="65">
+      <c r="J8" s="58">
         <f t="shared" si="7"/>
         <v>3.8675977189798279E-4</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="59">
         <f t="shared" si="8"/>
         <v>7.7900542918979817E-3</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="59">
         <f t="shared" si="9"/>
         <v>2.0925275712968031E-3</v>
       </c>
-      <c r="M8" s="67">
+      <c r="M8" s="60">
         <f>K8/size_correction!X$3</f>
         <v>1.0063337016214813</v>
       </c>
-      <c r="N8" s="67">
+      <c r="N8" s="60">
         <f>L8/size_correction!Y$3</f>
         <v>0.99582750191939118</v>
       </c>
-      <c r="P8" s="63" t="str">
+      <c r="P8" s="56" t="str">
         <f>size_correction!D8</f>
         <v>B6_ref_2</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="Q8" s="61">
         <f t="shared" si="11"/>
         <v>0.99973991247556415</v>
       </c>
-      <c r="R8" s="68">
+      <c r="R8" s="61">
         <f t="shared" si="11"/>
         <v>1.0020859042591113</v>
       </c>
-      <c r="S8" s="110">
+      <c r="S8" s="102">
         <f>size_correction!AF8</f>
         <v>0.99917068284195976</v>
       </c>
-      <c r="T8" s="110">
+      <c r="T8" s="102">
         <f>size_correction!AG8</f>
         <v>1.0023860907979212</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="60">
         <f t="shared" si="1"/>
         <v>-8.2966123175853173E-4</v>
       </c>
-      <c r="V8" s="67">
+      <c r="V8" s="60">
         <f t="shared" si="2"/>
         <v>2.3832486035312902E-3</v>
       </c>
-      <c r="W8" s="67">
+      <c r="W8" s="60">
         <f t="shared" si="3"/>
         <v>-2.6012135306176113E-4</v>
       </c>
-      <c r="X8" s="67">
+      <c r="X8" s="60">
         <f t="shared" si="3"/>
         <v>2.0837317813513596E-3</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A9" s="117">
+      <c r="A9" s="108">
         <v>90454</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="109">
         <v>25.73</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="109">
         <v>25.44</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="109">
         <f t="shared" si="10"/>
         <v>25.585000000000001</v>
       </c>
-      <c r="E9" s="118">
+      <c r="E9" s="109">
         <v>35.880000000000003</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="109">
         <f t="shared" si="4"/>
         <v>0.28999999999999915</v>
       </c>
-      <c r="G9" s="119">
+      <c r="G9" s="110">
         <f t="shared" si="5"/>
         <v>3.7710963450000002E-3</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="110">
         <f t="shared" si="5"/>
         <v>3.7700301599999995E-3</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="110">
         <f t="shared" si="6"/>
         <v>2.0771465759999996E-3</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="110">
         <f t="shared" si="7"/>
         <v>3.8687348777560239E-4</v>
       </c>
-      <c r="K9" s="120">
+      <c r="K9" s="111">
         <f t="shared" si="8"/>
         <v>7.9279999927756029E-3</v>
       </c>
-      <c r="L9" s="120">
+      <c r="L9" s="111">
         <f t="shared" si="9"/>
         <v>2.0942811848696616E-3</v>
       </c>
-      <c r="M9" s="67">
+      <c r="M9" s="60">
         <f>K9/size_correction!X$3</f>
         <v>1.0241537838167138</v>
       </c>
-      <c r="N9" s="67">
+      <c r="N9" s="60">
         <f>L9/size_correction!Y$3</f>
         <v>0.9966620412810443</v>
       </c>
-      <c r="P9" s="63" t="str">
+      <c r="P9" s="56" t="str">
         <f>size_correction!D9</f>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="61">
         <f>M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="61">
         <f>N3</f>
         <v>1.0044225086731247</v>
       </c>
-      <c r="S9" s="110">
+      <c r="S9" s="102">
         <f>size_correction!AF9</f>
         <v>1.0050941512728657</v>
       </c>
-      <c r="T9" s="110">
+      <c r="T9" s="102">
         <f>size_correction!AG9</f>
         <v>1.0057116133646442</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="60">
         <f t="shared" si="1"/>
         <v>5.0812199816469847E-3</v>
       </c>
-      <c r="V9" s="67">
+      <c r="V9" s="60">
         <f t="shared" si="2"/>
         <v>5.6953639452707308E-3</v>
       </c>
-      <c r="W9" s="67">
+      <c r="W9" s="60">
         <f t="shared" si="3"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="X9" s="67">
+      <c r="X9" s="60">
         <f t="shared" si="3"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63" t="str">
+      <c r="I10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56" t="str">
         <f>size_correction!D10</f>
         <v>DI</v>
       </c>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="110">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="102">
         <f>size_correction!AF10</f>
         <v>0.99092722925764687</v>
       </c>
-      <c r="T10" s="110">
+      <c r="T10" s="102">
         <f>size_correction!AG10</f>
         <v>1.0049378092932522</v>
       </c>
-      <c r="U10" s="67">
+      <c r="U10" s="60">
         <f t="shared" si="1"/>
         <v>-9.1141789753790732E-3</v>
       </c>
-      <c r="V10" s="67">
+      <c r="V10" s="60">
         <f t="shared" si="2"/>
         <v>4.9256582960658154E-3</v>
       </c>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
     </row>
     <row r="11" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="P11" s="63" t="str">
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="P11" s="56" t="str">
         <f>size_correction!D11</f>
         <v>ATM_EQ_SW_1</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="61">
         <f t="shared" ref="Q11:R13" si="12">M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="61">
         <f t="shared" si="12"/>
         <v>1.0044225086731247</v>
       </c>
-      <c r="S11" s="110">
+      <c r="S11" s="102">
         <f>size_correction!AF11</f>
         <v>1.0057192814133826</v>
       </c>
-      <c r="T11" s="110">
+      <c r="T11" s="102">
         <f>size_correction!AG11</f>
         <v>1.0054625917600983</v>
       </c>
-      <c r="U11" s="67">
+      <c r="U11" s="60">
         <f t="shared" si="1"/>
         <v>5.7029884167436144E-3</v>
       </c>
-      <c r="V11" s="67">
+      <c r="V11" s="60">
         <f t="shared" si="2"/>
         <v>5.4477259185061388E-3</v>
       </c>
-      <c r="W11" s="67">
+      <c r="W11" s="60">
         <f t="shared" ref="W11:X16" si="13">LN(Q11)</f>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="X11" s="67">
+      <c r="X11" s="60">
         <f t="shared" si="13"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="41" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="M12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63" t="str">
+    <row r="12" spans="1:27" ht="18" thickTop="1" thickBot="1">
+      <c r="M12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56" t="str">
         <f>size_correction!D12</f>
         <v>S2_ref_1</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="61">
         <f t="shared" si="12"/>
         <v>0.99629623559207692</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="61">
         <f t="shared" si="12"/>
         <v>0.99323347721175648</v>
       </c>
-      <c r="S12" s="110">
+      <c r="S12" s="102">
         <f>size_correction!AF12</f>
         <v>0.99641187878361481</v>
       </c>
-      <c r="T12" s="110">
+      <c r="T12" s="102">
         <f>size_correction!AG12</f>
         <v>0.99378130442821833</v>
       </c>
-      <c r="U12" s="67">
+      <c r="U12" s="60">
         <f t="shared" si="1"/>
         <v>-3.5945739634335372E-3</v>
       </c>
-      <c r="V12" s="67">
+      <c r="V12" s="60">
         <f t="shared" si="2"/>
         <v>-6.2381121983366193E-3</v>
       </c>
-      <c r="W12" s="67">
+      <c r="W12" s="60">
         <f t="shared" si="13"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="X12" s="67">
+      <c r="X12" s="60">
         <f t="shared" si="13"/>
         <v>-6.7895195007928941E-3</v>
       </c>
-      <c r="Y12"/>
-      <c r="Z12"/>
     </row>
     <row r="13" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P13" s="63" t="str">
+      <c r="P13" s="56" t="str">
         <f>size_correction!D13</f>
         <v>B6_ref_1</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="61">
         <f t="shared" si="12"/>
         <v>0.99973991247556415</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="61">
         <f t="shared" si="12"/>
         <v>1.0020859042591113</v>
       </c>
-      <c r="S13" s="110">
+      <c r="S13" s="102">
         <f>size_correction!AF13</f>
         <v>1.0001796848444418</v>
       </c>
-      <c r="T13" s="110">
+      <c r="T13" s="102">
         <f>size_correction!AG13</f>
         <v>1.0040343543858852</v>
       </c>
-      <c r="U13" s="67">
+      <c r="U13" s="60">
         <f t="shared" si="1"/>
         <v>1.7966870305363727E-4</v>
       </c>
-      <c r="V13" s="67">
+      <c r="V13" s="60">
         <f t="shared" si="2"/>
         <v>4.0262381999534996E-3</v>
       </c>
-      <c r="W13" s="67">
+      <c r="W13" s="60">
         <f t="shared" si="13"/>
         <v>-2.6012135306176113E-4</v>
       </c>
-      <c r="X13" s="67">
+      <c r="X13" s="60">
         <f t="shared" si="13"/>
         <v>2.0837317813513596E-3</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P14" s="63" t="str">
+      <c r="P14" s="56" t="str">
         <f>size_correction!D14</f>
         <v>ATM_EQ_SW_2</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="61">
         <f>M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="61">
         <f>N3</f>
         <v>1.0044225086731247</v>
       </c>
-      <c r="S14" s="110">
+      <c r="S14" s="102">
         <f>size_correction!AF14</f>
         <v>1.0048805539160894</v>
       </c>
-      <c r="T14" s="110">
+      <c r="T14" s="102">
         <f>size_correction!AG14</f>
         <v>1.0053599727245706</v>
       </c>
-      <c r="U14" s="67">
+      <c r="U14" s="60">
         <f t="shared" si="1"/>
         <v>4.8686826228146419E-3</v>
       </c>
-      <c r="V14" s="67">
+      <c r="V14" s="60">
         <f t="shared" si="2"/>
         <v>5.3456591947391319E-3</v>
       </c>
-      <c r="W14" s="67">
+      <c r="W14" s="60">
         <f t="shared" si="13"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="X14" s="67">
+      <c r="X14" s="60">
         <f t="shared" si="13"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P15" s="63" t="str">
+      <c r="P15" s="56" t="str">
         <f>size_correction!D15</f>
         <v>ATM_EQ_SW_3</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q15" s="61">
         <f>M3</f>
         <v>1.0059496767117579</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="61">
         <f>N3</f>
         <v>1.0044225086731247</v>
       </c>
-      <c r="S15" s="110">
+      <c r="S15" s="102">
         <f>size_correction!AF15</f>
         <v>1.0056387310168626</v>
       </c>
-      <c r="T15" s="110">
+      <c r="T15" s="102">
         <f>size_correction!AG15</f>
         <v>1.0064676550191509</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U15" s="60">
         <f t="shared" si="1"/>
         <v>5.6228928832132777E-3</v>
       </c>
-      <c r="V15" s="67">
+      <c r="V15" s="60">
         <f t="shared" si="2"/>
         <v>6.446829485110093E-3</v>
       </c>
-      <c r="W15" s="67">
+      <c r="W15" s="60">
         <f t="shared" si="13"/>
         <v>5.9320472770020231E-3</v>
       </c>
-      <c r="X15" s="67">
+      <c r="X15" s="60">
         <f t="shared" si="13"/>
         <v>4.412758119012896E-3</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="18" thickTop="1" thickBot="1">
-      <c r="P16" s="63" t="str">
+      <c r="P16" s="56" t="str">
         <f>size_correction!D16</f>
         <v>S2_ref_2</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="61">
         <f>M4</f>
         <v>0.99629623559207692</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="61">
         <f>N4</f>
         <v>0.99323347721175648</v>
       </c>
-      <c r="S16" s="110">
+      <c r="S16" s="102">
         <f>size_correction!AF16</f>
         <v>0.99633327484903467</v>
       </c>
-      <c r="T16" s="110">
+      <c r="T16" s="102">
         <f>size_correction!AG16</f>
         <v>0.99474403428411884</v>
       </c>
-      <c r="U16" s="67">
+      <c r="U16" s="60">
         <f t="shared" si="1"/>
         <v>-3.6734640658408848E-3</v>
       </c>
-      <c r="V16" s="67">
+      <c r="V16" s="60">
         <f t="shared" si="2"/>
         <v>-5.2698268942697113E-3</v>
       </c>
-      <c r="W16" s="67">
+      <c r="W16" s="60">
         <f t="shared" si="13"/>
         <v>-3.7106403264231301E-3</v>
       </c>
-      <c r="X16" s="67">
+      <c r="X16" s="60">
         <f t="shared" si="13"/>
         <v>-6.7895195007928941E-3</v>
       </c>
     </row>
     <row r="17" spans="4:24" ht="18" thickTop="1" thickBot="1">
-      <c r="P17" s="63" t="str">
+      <c r="P17" s="56" t="str">
         <f>size_correction!D17</f>
         <v>DI</v>
       </c>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="110">
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="102">
         <f>size_correction!AF17</f>
         <v>0.99349493237592013</v>
       </c>
-      <c r="T17" s="110">
+      <c r="T17" s="102">
         <f>size_correction!AG17</f>
         <v>1.0044001925480899</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="60">
         <f t="shared" si="1"/>
         <v>-6.5263177824188435E-3</v>
       </c>
-      <c r="V17" s="67">
+      <c r="V17" s="60">
         <f t="shared" si="2"/>
         <v>4.3905400058642007E-3</v>
       </c>
-      <c r="W17" s="67"/>
-      <c r="X17" s="67"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
     </row>
     <row r="18" spans="4:24" ht="17" thickTop="1"/>
     <row r="28" spans="4:24">
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="4:24">
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="4:24">
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="4:24">
-      <c r="D31" s="63"/>
-      <c r="E31" s="64"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="4:24">
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" spans="4:5">
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="4:5">
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="4:5">
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
     </row>
     <row r="42" spans="4:5">
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" spans="4:5">
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="4:5">
-      <c r="D44" s="63"/>
-      <c r="E44" s="64"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" spans="4:5">
-      <c r="D45" s="63"/>
-      <c r="E45" s="64"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="4:5">
-      <c r="D46" s="63"/>
-      <c r="E46" s="64"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="4:5">
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9250,8 +9065,8 @@
       </c>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
@@ -9263,34 +9078,34 @@
       <c r="N2">
         <v>2.0052E-3</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="121" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
       <c r="M3" t="s">
         <v>125</v>
       </c>
       <c r="N3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="1" t="s">
@@ -9308,7 +9123,7 @@
       <c r="E4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="112" t="s">
+      <c r="F4" s="104" t="s">
         <v>137</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -9326,13 +9141,13 @@
       <c r="K4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="112" t="s">
+      <c r="L4" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="104" t="s">
         <v>141</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -9341,465 +9156,465 @@
       <c r="P4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="Y4" s="112"/>
+      <c r="V4" s="104"/>
+      <c r="Y4" s="104"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="68">
+      <c r="A5" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B5" s="68">
+      <c r="B5" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="61">
         <v>3.7689117349450109E-3</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="61">
         <v>7.7934998191650307E-3</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="103">
         <v>2.1164798861162191E-3</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="61">
         <v>0</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="61">
         <v>3.7228017752489761E-3</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="61">
         <v>7.7441640342372194E-3</v>
       </c>
-      <c r="K5" s="111">
+      <c r="K5" s="103">
         <v>2.109788966545483E-3</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="61">
         <v>0</v>
       </c>
-      <c r="M5" s="67" cm="1">
+      <c r="M5" s="60" cm="1">
         <f t="array" ref="M5">Rsolve18(E5,10,D5,E5,F5,$N$3,$N$2,$N$1)</f>
         <v>2.0998927031414612E-3</v>
       </c>
-      <c r="N5" s="67" cm="1">
+      <c r="N5" s="60" cm="1">
         <f t="array" ref="N5">Rsolve18(K5,10,J5,K5,L5,$N$3,$N$2,$N$1)</f>
         <v>2.0934050628434882E-3</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="60">
         <f>$N$1*(M5/$N$2)^$N$3</f>
         <v>3.8905377024749663E-4</v>
       </c>
-      <c r="P5" s="67">
+      <c r="P5" s="60">
         <f>$N$1*(N5/$N$2)^$N$3</f>
         <v>3.8843308121852137E-4</v>
       </c>
-      <c r="Q5" s="84">
+      <c r="Q5" s="76">
         <f>(A5+R5*B5+A5*B5-(C5-O5)*(1+(1-R5)*B5))/(A5*(1+C5-O5))</f>
         <v>0.20872209614007559</v>
       </c>
-      <c r="R5" s="84">
+      <c r="R5" s="76">
         <f>((A5-C5+O5)*(1+B5)/(A5*(1+C5-O5)) - (G5-I5+P5)*(1+H5)/(G5*(1+I5-P5)))/(H5/G5-B5/A5)</f>
         <v>0.1159684103244177</v>
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="68">
+      <c r="A6" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B6" s="68">
+      <c r="B6" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="61">
         <v>3.7689117349450109E-3</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="61">
         <v>7.7934998191650307E-3</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="103">
         <v>2.1164798861162191E-3</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="61">
         <v>0</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="61">
         <v>3.7199285353648262E-3</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="61">
         <v>7.7342329865834319E-3</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="103">
         <v>2.105997079923158E-3</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="61">
         <v>0</v>
       </c>
-      <c r="M6" s="67" cm="1">
+      <c r="M6" s="60" cm="1">
         <f t="array" ref="M6">Rsolve18(E6,10,D6,E6,F6,$N$3,$N$2,$N$1)</f>
         <v>2.0998927031414612E-3</v>
       </c>
-      <c r="N6" s="67" cm="1">
+      <c r="N6" s="60" cm="1">
         <f t="array" ref="N6">Rsolve18(K6,10,J6,K6,L6,$N$3,$N$2,$N$1)</f>
         <v>2.0896547141455901E-3</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="60">
         <f>$N$1*(M6/$N$2)^$N$3</f>
         <v>3.8905377024749663E-4</v>
       </c>
-      <c r="P6" s="67">
+      <c r="P6" s="60">
         <f>$N$1*(N6/$N$2)^$N$3</f>
         <v>3.8807385113215798E-4</v>
       </c>
-      <c r="Q6" s="84">
+      <c r="Q6" s="76">
         <f>(A6+R6*B6+A6*B6-(C6-O6)*(1+(1-R6)*B6))/(A6*(1+C6-O6))</f>
         <v>0.17329677501906443</v>
       </c>
-      <c r="R6" s="84">
+      <c r="R6" s="76">
         <f>((A6-C6+O6)*(1+B6)/(A6*(1+C6-O6)) - (G6-I6+P6)*(1+H6)/(G6*(1+I6-P6)))/(H6/G6-B6/A6)</f>
         <v>7.9867779580351114E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="68">
+      <c r="A7" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="61">
         <v>3.770760540076305E-3</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="61">
         <v>7.7827523186501267E-3</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="61">
         <v>2.1125489546459449E-3</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="61">
         <v>0</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="61">
         <v>3.7228017752489761E-3</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="61">
         <v>7.7441640342372194E-3</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="61">
         <v>2.109788966545483E-3</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="61">
         <v>0</v>
       </c>
-      <c r="M7" s="67" cm="1">
+      <c r="M7" s="60" cm="1">
         <f t="array" ref="M7">Rsolve18(E7,10,D7,E7,F7,$N$3,$N$2,$N$1)</f>
         <v>2.096006943235472E-3</v>
       </c>
-      <c r="N7" s="67" cm="1">
+      <c r="N7" s="60" cm="1">
         <f t="array" ref="N7">Rsolve18(K7,10,J7,K7,L7,$N$3,$N$2,$N$1)</f>
         <v>2.0934050628434882E-3</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="60">
         <f t="shared" ref="O7:O11" si="0">$N$1*(M7/$N$2)^$N$3</f>
         <v>3.8868212138784054E-4</v>
       </c>
-      <c r="P7" s="67">
+      <c r="P7" s="60">
         <f t="shared" ref="P7:P11" si="1">$N$1*(N7/$N$2)^$N$3</f>
         <v>3.8843308121852137E-4</v>
       </c>
-      <c r="Q7" s="84">
+      <c r="Q7" s="76">
         <f t="shared" ref="Q7:Q11" si="2">(A7+R7*B7+A7*B7-(C7-O7)*(1+(1-R7)*B7))/(A7*(1+C7-O7))</f>
         <v>0.17733587859609368</v>
       </c>
-      <c r="R7" s="84">
+      <c r="R7" s="76">
         <f t="shared" ref="R7:R11" si="3">((A7-C7+O7)*(1+B7)/(A7*(1+C7-O7)) - (G7-I7+P7)*(1+H7)/(G7*(1+I7-P7)))/(H7/G7-B7/A7)</f>
         <v>8.4590223076979915E-2</v>
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="68">
+      <c r="A8" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="61">
         <v>3.770760540076305E-3</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="61">
         <v>7.7827523186501267E-3</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="61">
         <v>2.1125489546459449E-3</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="61">
         <v>0</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="61">
         <v>3.7199285353648262E-3</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="61">
         <v>7.7342329865834319E-3</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="61">
         <v>2.105997079923158E-3</v>
       </c>
-      <c r="L8" s="68">
+      <c r="L8" s="61">
         <v>0</v>
       </c>
-      <c r="M8" s="67" cm="1">
+      <c r="M8" s="60" cm="1">
         <f t="array" ref="M8">Rsolve18(E8,10,D8,E8,F8,$N$3,$N$2,$N$1)</f>
         <v>2.096006943235472E-3</v>
       </c>
-      <c r="N8" s="67" cm="1">
+      <c r="N8" s="60" cm="1">
         <f t="array" ref="N8">Rsolve18(K8,10,J8,K8,L8,$N$3,$N$2,$N$1)</f>
         <v>2.0896547141455901E-3</v>
       </c>
-      <c r="O8" s="67">
+      <c r="O8" s="60">
         <f t="shared" si="0"/>
         <v>3.8868212138784054E-4</v>
       </c>
-      <c r="P8" s="67">
+      <c r="P8" s="60">
         <f t="shared" si="1"/>
         <v>3.8807385113215798E-4</v>
       </c>
-      <c r="Q8" s="84">
+      <c r="Q8" s="76">
         <f t="shared" si="2"/>
         <v>0.14191055747508233</v>
       </c>
-      <c r="R8" s="84">
+      <c r="R8" s="76">
         <f t="shared" si="3"/>
         <v>4.8489592332913341E-2</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="68">
+      <c r="A9" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="61">
         <v>3.774157409185728E-3</v>
       </c>
-      <c r="D9" s="68">
+      <c r="D9" s="61">
         <v>7.7878737502717673E-3</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="61">
         <v>2.11205838421125E-3</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="61">
         <v>0</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9" s="61">
         <v>3.7242631653031061E-3</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="61">
         <v>7.742496580265385E-3</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="61">
         <v>2.1092446228371492E-3</v>
       </c>
-      <c r="L9" s="68">
+      <c r="L9" s="61">
         <v>0</v>
       </c>
-      <c r="M9" s="67" cm="1">
+      <c r="M9" s="60" cm="1">
         <f t="array" ref="M9">Rsolve18(E9,10,D9,E9,F9,$N$3,$N$2,$N$1)</f>
         <v>2.0954956035312334E-3</v>
       </c>
-      <c r="N9" s="67" cm="1">
+      <c r="N9" s="60" cm="1">
         <f t="array" ref="N9">Rsolve18(K9,10,J9,K9,L9,$N$3,$N$2,$N$1)</f>
         <v>2.0928676680247141E-3</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="60">
         <f t="shared" si="0"/>
         <v>3.886331900931322E-4</v>
       </c>
-      <c r="P9" s="67">
+      <c r="P9" s="60">
         <f t="shared" si="1"/>
         <v>3.883816255649651E-4</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="76">
         <f t="shared" si="2"/>
         <v>0.14994727862657609</v>
       </c>
-      <c r="R9" s="84">
+      <c r="R9" s="76">
         <f t="shared" si="3"/>
         <v>5.7620461575761298E-2</v>
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="68">
+      <c r="A10" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="61">
         <v>3.7661587198913019E-3</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="61">
         <v>7.7810024465572326E-3</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="61">
         <v>2.1118562233900968E-3</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="61">
         <v>0</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="61">
         <v>3.7242631653031061E-3</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="61">
         <v>7.742496580265385E-3</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="61">
         <v>2.1092446228371492E-3</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="61">
         <v>0</v>
       </c>
-      <c r="M10" s="67" cm="1">
+      <c r="M10" s="60" cm="1">
         <f t="array" ref="M10">Rsolve18(E10,10,D10,E10,F10,$N$3,$N$2,$N$1)</f>
         <v>2.0953215776226782E-3</v>
       </c>
-      <c r="N10" s="67" cm="1">
+      <c r="N10" s="60" cm="1">
         <f t="array" ref="N10">Rsolve18(K10,10,J10,K10,L10,$N$3,$N$2,$N$1)</f>
         <v>2.0928676680247141E-3</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="60">
         <f t="shared" si="0"/>
         <v>3.8861653582803027E-4</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="60">
         <f t="shared" si="1"/>
         <v>3.883816255649651E-4</v>
       </c>
-      <c r="Q10" s="84">
+      <c r="Q10" s="76">
         <f t="shared" si="2"/>
         <v>0.26277357755180591</v>
       </c>
-      <c r="R10" s="84">
+      <c r="R10" s="76">
         <f t="shared" si="3"/>
         <v>0.17041789341507743</v>
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="68">
+      <c r="A11" s="61">
         <v>3.73422105E-3</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="61">
         <v>3.6643675499999999E-3</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="61">
         <v>3.7730126315774341E-3</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="61">
         <v>7.7872138239604956E-3</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="61">
         <v>2.114038303996214E-3</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="61">
         <v>0</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="61">
         <v>3.6750148213719339E-3</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="61">
         <v>3.6759553300949816E-3</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="61">
         <v>3.7242631653031061E-3</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="61">
         <v>7.742496580265385E-3</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="61">
         <v>2.1092446228371492E-3</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="61">
         <v>0</v>
       </c>
-      <c r="M11" s="67" cm="1">
+      <c r="M11" s="60" cm="1">
         <f t="array" ref="M11">Rsolve18(E11,10,D11,E11,F11,$N$3,$N$2,$N$1)</f>
         <v>2.0974775933835267E-3</v>
       </c>
-      <c r="N11" s="67" cm="1">
+      <c r="N11" s="60" cm="1">
         <f t="array" ref="N11">Rsolve18(K11,10,J11,K11,L11,$N$3,$N$2,$N$1)</f>
         <v>2.0928676680247141E-3</v>
       </c>
-      <c r="O11" s="67">
+      <c r="O11" s="60">
         <f t="shared" si="0"/>
         <v>3.888228191523488E-4</v>
       </c>
-      <c r="P11" s="67">
+      <c r="P11" s="60">
         <f t="shared" si="1"/>
         <v>3.883816255649651E-4</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="76">
         <f t="shared" si="2"/>
         <v>0.16880903099141051</v>
       </c>
-      <c r="R11" s="84">
+      <c r="R11" s="76">
         <f t="shared" si="3"/>
         <v>7.6477388081454753E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="Q13" s="84">
+      <c r="Q13" s="76">
         <f>AVERAGE(Q5:Q11)</f>
         <v>0.18325645634287266</v>
       </c>
-      <c r="R13" s="84">
+      <c r="R13" s="76">
         <f>AVERAGE(R5:R11)</f>
         <v>9.0490249769565087E-2</v>
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="Q14" s="84">
+      <c r="Q14" s="76">
         <f>STDEV(Q5:Q11)</f>
         <v>4.1096294725866948E-2</v>
       </c>
-      <c r="R14" s="84">
+      <c r="R14" s="76">
         <f>STDEV(R5:R11)</f>
         <v>4.1283674266355812E-2</v>
       </c>
@@ -9835,176 +9650,176 @@
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="72">
         <f>B12</f>
         <v>0.4623614635092998</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="72">
         <f>C12</f>
         <v>0.10975712247295455</v>
       </c>
       <c r="F2" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="43">
         <f>1/B2</f>
         <v>2.1628100067208269</v>
       </c>
       <c r="H2" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
       <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="72">
         <f>B13</f>
         <v>8.0186890671505306E-3</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="80">
+      <c r="C3" s="70"/>
+      <c r="D3" s="72">
         <f>C13</f>
         <v>0.30903560626553517</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="72">
         <v>1.026</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="E4" s="78" t="s">
+      <c r="C4" s="70"/>
+      <c r="E4" s="70" t="s">
         <v>147</v>
       </c>
       <c r="F4">
         <v>0.99819999999999998</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="70" t="s">
         <v>148</v>
       </c>
       <c r="I4">
         <v>1.002</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="76">
         <f>1/B4</f>
         <v>0.97465886939571145</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="70"/>
+      <c r="E5" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="76">
         <f>1/F4</f>
         <v>1.0018032458425166</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="84">
+      <c r="I5" s="76">
         <f>1/I4</f>
         <v>0.99800399201596801</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="81"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="79">
         <f>B5/1000</f>
         <v>9.7465886939571145E-4</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="E6" s="78" t="s">
+      <c r="C6" s="70"/>
+      <c r="E6" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="79">
         <f>F5/1000</f>
         <v>1.0018032458425166E-3</v>
       </c>
-      <c r="H6" s="78" t="s">
+      <c r="H6" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="79">
         <f>I5/1000</f>
         <v>9.9800399201596798E-4</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="86"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="78"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="L7" s="81"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="81"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="73"/>
     </row>
     <row r="8" spans="1:18" ht="18">
-      <c r="L8" s="81"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="81"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="73"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="M9" s="91"/>
-      <c r="N9" s="81"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="73"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="96"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="81"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="73"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="1" t="s">
@@ -10013,7 +9828,7 @@
       <c r="C11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="78"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -10044,27 +9859,27 @@
       <c r="B14">
         <v>0.99342642117731605</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="43">
         <v>0.96347094633189312</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:18">
       <c r="B15">
         <v>3324.7309959200538</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="43">
         <v>22</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16">
@@ -10073,23 +9888,23 @@
       <c r="C16">
         <v>20.422077817364819</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="43"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="4:10">
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="4:10">
-      <c r="G18" s="50"/>
-      <c r="I18" s="100"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="92"/>
     </row>
     <row r="20" spans="4:10">
-      <c r="J20" s="101"/>
+      <c r="J20" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
